--- a/020-内部設計/023-クラス仕様書/013_商品検索/クラス仕様書(SearchResultService.java) .xlsx
+++ b/020-内部設計/023-クラス仕様書/013_商品検索/クラス仕様書(SearchResultService.java) .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B08101-1A6E-4508-BDCA-EEAE7281E5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1F619E-FB39-4D37-B48B-607D378354EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1603,27 +1603,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1645,38 +1624,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1688,25 +1643,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1717,13 +1657,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1731,6 +1722,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1750,23 +1750,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2090,85 +2090,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="110" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="111" t="s">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="110" t="s">
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="111" t="s">
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111"/>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="110" t="s">
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="111" t="s">
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
-      <c r="AX1" s="111"/>
-      <c r="AY1" s="111"/>
-      <c r="AZ1" s="111"/>
-      <c r="BA1" s="110" t="s">
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="113">
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="93">
         <v>45910</v>
       </c>
-      <c r="BE1" s="113"/>
-      <c r="BF1" s="113"/>
-      <c r="BG1" s="113"/>
-      <c r="BH1" s="113"/>
-      <c r="BI1" s="113"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2368,82 +2368,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="110" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="110" t="s">
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="111" t="str">
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="90" t="str">
         <f>G6</f>
         <v>SearchResultService</v>
       </c>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111"/>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="111"/>
-      <c r="AJ2" s="111"/>
-      <c r="AK2" s="111"/>
-      <c r="AL2" s="111"/>
-      <c r="AM2" s="111"/>
-      <c r="AN2" s="111"/>
-      <c r="AO2" s="111"/>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="110" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="110"/>
-      <c r="AS2" s="110"/>
-      <c r="AT2" s="111" t="s">
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="AU2" s="111"/>
-      <c r="AV2" s="111"/>
-      <c r="AW2" s="111"/>
-      <c r="AX2" s="111"/>
-      <c r="AY2" s="111"/>
-      <c r="AZ2" s="111"/>
-      <c r="BA2" s="110" t="s">
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="110"/>
-      <c r="BC2" s="110"/>
-      <c r="BD2" s="113">
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="93">
         <v>45911</v>
       </c>
-      <c r="BE2" s="113"/>
-      <c r="BF2" s="113"/>
-      <c r="BG2" s="113"/>
-      <c r="BH2" s="113"/>
-      <c r="BI2" s="113"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="93"/>
+      <c r="BG2" s="93"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -2643,410 +2643,410 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="102" t="s">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="103"/>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="103"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="103"/>
-      <c r="AL4" s="103"/>
-      <c r="AM4" s="103"/>
-      <c r="AN4" s="103"/>
-      <c r="AO4" s="103"/>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="103"/>
-      <c r="AR4" s="103"/>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="103"/>
-      <c r="AU4" s="103"/>
-      <c r="AV4" s="103"/>
-      <c r="AW4" s="103"/>
-      <c r="AX4" s="103"/>
-      <c r="AY4" s="103"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="103"/>
-      <c r="BB4" s="103"/>
-      <c r="BC4" s="103"/>
-      <c r="BD4" s="103"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="103"/>
-      <c r="BG4" s="103"/>
-      <c r="BH4" s="103"/>
-      <c r="BI4" s="104"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="88"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="88"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="88"/>
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="88"/>
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="89"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="102" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="103"/>
-      <c r="AG5" s="103"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="103"/>
-      <c r="AJ5" s="103"/>
-      <c r="AK5" s="103"/>
-      <c r="AL5" s="103"/>
-      <c r="AM5" s="103"/>
-      <c r="AN5" s="103"/>
-      <c r="AO5" s="103"/>
-      <c r="AP5" s="103"/>
-      <c r="AQ5" s="103"/>
-      <c r="AR5" s="103"/>
-      <c r="AS5" s="103"/>
-      <c r="AT5" s="103"/>
-      <c r="AU5" s="103"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="103"/>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="103"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="103"/>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="103"/>
-      <c r="BI5" s="104"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88"/>
+      <c r="AK5" s="88"/>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="88"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="88"/>
+      <c r="AT5" s="88"/>
+      <c r="AU5" s="88"/>
+      <c r="AV5" s="88"/>
+      <c r="AW5" s="88"/>
+      <c r="AX5" s="88"/>
+      <c r="AY5" s="88"/>
+      <c r="AZ5" s="88"/>
+      <c r="BA5" s="88"/>
+      <c r="BB5" s="88"/>
+      <c r="BC5" s="88"/>
+      <c r="BD5" s="88"/>
+      <c r="BE5" s="88"/>
+      <c r="BF5" s="88"/>
+      <c r="BG5" s="88"/>
+      <c r="BH5" s="88"/>
+      <c r="BI5" s="89"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="102" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="103"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="103"/>
-      <c r="AA6" s="103"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="103"/>
-      <c r="AG6" s="103"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="103"/>
-      <c r="AJ6" s="103"/>
-      <c r="AK6" s="103"/>
-      <c r="AL6" s="103"/>
-      <c r="AM6" s="103"/>
-      <c r="AN6" s="103"/>
-      <c r="AO6" s="103"/>
-      <c r="AP6" s="103"/>
-      <c r="AQ6" s="103"/>
-      <c r="AR6" s="103"/>
-      <c r="AS6" s="103"/>
-      <c r="AT6" s="103"/>
-      <c r="AU6" s="103"/>
-      <c r="AV6" s="103"/>
-      <c r="AW6" s="103"/>
-      <c r="AX6" s="103"/>
-      <c r="AY6" s="103"/>
-      <c r="AZ6" s="103"/>
-      <c r="BA6" s="103"/>
-      <c r="BB6" s="103"/>
-      <c r="BC6" s="103"/>
-      <c r="BD6" s="103"/>
-      <c r="BE6" s="103"/>
-      <c r="BF6" s="103"/>
-      <c r="BG6" s="103"/>
-      <c r="BH6" s="103"/>
-      <c r="BI6" s="104"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="88"/>
+      <c r="AK6" s="88"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="88"/>
+      <c r="AQ6" s="88"/>
+      <c r="AR6" s="88"/>
+      <c r="AS6" s="88"/>
+      <c r="AT6" s="88"/>
+      <c r="AU6" s="88"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="88"/>
+      <c r="AY6" s="88"/>
+      <c r="AZ6" s="88"/>
+      <c r="BA6" s="88"/>
+      <c r="BB6" s="88"/>
+      <c r="BC6" s="88"/>
+      <c r="BD6" s="88"/>
+      <c r="BE6" s="88"/>
+      <c r="BF6" s="88"/>
+      <c r="BG6" s="88"/>
+      <c r="BH6" s="88"/>
+      <c r="BI6" s="89"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="102" t="s">
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="103"/>
-      <c r="S7" s="103"/>
-      <c r="T7" s="103"/>
-      <c r="U7" s="103"/>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="103"/>
-      <c r="AE7" s="103"/>
-      <c r="AF7" s="103"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="103"/>
-      <c r="AI7" s="103"/>
-      <c r="AJ7" s="103"/>
-      <c r="AK7" s="103"/>
-      <c r="AL7" s="103"/>
-      <c r="AM7" s="103"/>
-      <c r="AN7" s="103"/>
-      <c r="AO7" s="103"/>
-      <c r="AP7" s="103"/>
-      <c r="AQ7" s="103"/>
-      <c r="AR7" s="103"/>
-      <c r="AS7" s="103"/>
-      <c r="AT7" s="103"/>
-      <c r="AU7" s="103"/>
-      <c r="AV7" s="103"/>
-      <c r="AW7" s="103"/>
-      <c r="AX7" s="103"/>
-      <c r="AY7" s="103"/>
-      <c r="AZ7" s="103"/>
-      <c r="BA7" s="103"/>
-      <c r="BB7" s="103"/>
-      <c r="BC7" s="103"/>
-      <c r="BD7" s="103"/>
-      <c r="BE7" s="103"/>
-      <c r="BF7" s="103"/>
-      <c r="BG7" s="103"/>
-      <c r="BH7" s="103"/>
-      <c r="BI7" s="104"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="88"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="88"/>
+      <c r="AG7" s="88"/>
+      <c r="AH7" s="88"/>
+      <c r="AI7" s="88"/>
+      <c r="AJ7" s="88"/>
+      <c r="AK7" s="88"/>
+      <c r="AL7" s="88"/>
+      <c r="AM7" s="88"/>
+      <c r="AN7" s="88"/>
+      <c r="AO7" s="88"/>
+      <c r="AP7" s="88"/>
+      <c r="AQ7" s="88"/>
+      <c r="AR7" s="88"/>
+      <c r="AS7" s="88"/>
+      <c r="AT7" s="88"/>
+      <c r="AU7" s="88"/>
+      <c r="AV7" s="88"/>
+      <c r="AW7" s="88"/>
+      <c r="AX7" s="88"/>
+      <c r="AY7" s="88"/>
+      <c r="AZ7" s="88"/>
+      <c r="BA7" s="88"/>
+      <c r="BB7" s="88"/>
+      <c r="BC7" s="88"/>
+      <c r="BD7" s="88"/>
+      <c r="BE7" s="88"/>
+      <c r="BF7" s="88"/>
+      <c r="BG7" s="88"/>
+      <c r="BH7" s="88"/>
+      <c r="BI7" s="89"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="102" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="103"/>
-      <c r="T8" s="103"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="103"/>
-      <c r="W8" s="103"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="103"/>
-      <c r="Z8" s="103"/>
-      <c r="AA8" s="103"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="103"/>
-      <c r="AD8" s="103"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="103"/>
-      <c r="AG8" s="103"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="103"/>
-      <c r="AJ8" s="103"/>
-      <c r="AK8" s="103"/>
-      <c r="AL8" s="103"/>
-      <c r="AM8" s="103"/>
-      <c r="AN8" s="103"/>
-      <c r="AO8" s="103"/>
-      <c r="AP8" s="103"/>
-      <c r="AQ8" s="103"/>
-      <c r="AR8" s="103"/>
-      <c r="AS8" s="103"/>
-      <c r="AT8" s="103"/>
-      <c r="AU8" s="103"/>
-      <c r="AV8" s="103"/>
-      <c r="AW8" s="103"/>
-      <c r="AX8" s="103"/>
-      <c r="AY8" s="103"/>
-      <c r="AZ8" s="103"/>
-      <c r="BA8" s="103"/>
-      <c r="BB8" s="103"/>
-      <c r="BC8" s="103"/>
-      <c r="BD8" s="103"/>
-      <c r="BE8" s="103"/>
-      <c r="BF8" s="103"/>
-      <c r="BG8" s="103"/>
-      <c r="BH8" s="103"/>
-      <c r="BI8" s="104"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="88"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="88"/>
+      <c r="AZ8" s="88"/>
+      <c r="BA8" s="88"/>
+      <c r="BB8" s="88"/>
+      <c r="BC8" s="88"/>
+      <c r="BD8" s="88"/>
+      <c r="BE8" s="88"/>
+      <c r="BF8" s="88"/>
+      <c r="BG8" s="88"/>
+      <c r="BH8" s="88"/>
+      <c r="BI8" s="89"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="102" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="103"/>
-      <c r="T9" s="103"/>
-      <c r="U9" s="103"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="103"/>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="95" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="89"/>
+      <c r="AF9" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="95"/>
-      <c r="AJ9" s="95"/>
-      <c r="AK9" s="95"/>
-      <c r="AL9" s="96" t="s">
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="AM9" s="96"/>
-      <c r="AN9" s="96"/>
-      <c r="AO9" s="96"/>
-      <c r="AP9" s="96"/>
-      <c r="AQ9" s="96"/>
-      <c r="AR9" s="96"/>
-      <c r="AS9" s="96"/>
-      <c r="AT9" s="96"/>
-      <c r="AU9" s="96"/>
-      <c r="AV9" s="96"/>
-      <c r="AW9" s="96"/>
-      <c r="AX9" s="96"/>
-      <c r="AY9" s="96"/>
-      <c r="AZ9" s="96"/>
-      <c r="BA9" s="96"/>
-      <c r="BB9" s="96"/>
-      <c r="BC9" s="96"/>
-      <c r="BD9" s="96"/>
-      <c r="BE9" s="96"/>
-      <c r="BF9" s="96"/>
-      <c r="BG9" s="96"/>
-      <c r="BH9" s="96"/>
-      <c r="BI9" s="96"/>
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
+      <c r="AZ9" s="107"/>
+      <c r="BA9" s="107"/>
+      <c r="BB9" s="107"/>
+      <c r="BC9" s="107"/>
+      <c r="BD9" s="107"/>
+      <c r="BE9" s="107"/>
+      <c r="BF9" s="107"/>
+      <c r="BG9" s="107"/>
+      <c r="BH9" s="107"/>
+      <c r="BI9" s="107"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -3058,169 +3058,169 @@
       <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="77" t="s">
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="77" t="s">
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="94" t="s">
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="94" t="s">
+      <c r="AB12" s="105"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="AJ12" s="94"/>
-      <c r="AK12" s="94"/>
-      <c r="AL12" s="94"/>
-      <c r="AM12" s="94"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="94"/>
-      <c r="AP12" s="94"/>
-      <c r="AQ12" s="94"/>
-      <c r="AR12" s="94"/>
-      <c r="AS12" s="94"/>
-      <c r="AT12" s="94"/>
-      <c r="AU12" s="94"/>
-      <c r="AV12" s="94"/>
-      <c r="AW12" s="94"/>
-      <c r="AX12" s="94"/>
-      <c r="AY12" s="94"/>
-      <c r="AZ12" s="94"/>
-      <c r="BA12" s="98" t="s">
+      <c r="AJ12" s="105"/>
+      <c r="AK12" s="105"/>
+      <c r="AL12" s="105"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="105"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+      <c r="AQ12" s="105"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="105"/>
+      <c r="AT12" s="105"/>
+      <c r="AU12" s="105"/>
+      <c r="AV12" s="105"/>
+      <c r="AW12" s="105"/>
+      <c r="AX12" s="105"/>
+      <c r="AY12" s="105"/>
+      <c r="AZ12" s="105"/>
+      <c r="BA12" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="BB12" s="77"/>
-      <c r="BC12" s="77"/>
-      <c r="BD12" s="77"/>
-      <c r="BE12" s="77"/>
-      <c r="BF12" s="77"/>
-      <c r="BG12" s="77"/>
-      <c r="BH12" s="78"/>
-      <c r="DI12" s="77" t="s">
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="95"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="95"/>
+      <c r="BF12" s="95"/>
+      <c r="BG12" s="95"/>
+      <c r="BH12" s="96"/>
+      <c r="DI12" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="DJ12" s="77"/>
-      <c r="DK12" s="77"/>
-      <c r="DL12" s="77"/>
-      <c r="DM12" s="77"/>
-      <c r="DN12" s="77"/>
-      <c r="DO12" s="77"/>
-      <c r="DP12" s="78"/>
+      <c r="DJ12" s="95"/>
+      <c r="DK12" s="95"/>
+      <c r="DL12" s="95"/>
+      <c r="DM12" s="95"/>
+      <c r="DN12" s="95"/>
+      <c r="DO12" s="95"/>
+      <c r="DP12" s="96"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="79" t="s">
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="79" t="s">
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="109" t="s">
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="AB13" s="109"/>
-      <c r="AC13" s="109"/>
-      <c r="AD13" s="109"/>
-      <c r="AE13" s="109"/>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="109"/>
-      <c r="AH13" s="109"/>
-      <c r="AI13" s="109" t="s">
+      <c r="AB13" s="106"/>
+      <c r="AC13" s="106"/>
+      <c r="AD13" s="106"/>
+      <c r="AE13" s="106"/>
+      <c r="AF13" s="106"/>
+      <c r="AG13" s="106"/>
+      <c r="AH13" s="106"/>
+      <c r="AI13" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="AJ13" s="109"/>
-      <c r="AK13" s="109"/>
-      <c r="AL13" s="109"/>
-      <c r="AM13" s="109"/>
-      <c r="AN13" s="109"/>
-      <c r="AO13" s="109"/>
-      <c r="AP13" s="109"/>
-      <c r="AQ13" s="109"/>
-      <c r="AR13" s="109"/>
-      <c r="AS13" s="109"/>
-      <c r="AT13" s="109"/>
-      <c r="AU13" s="109"/>
-      <c r="AV13" s="109"/>
-      <c r="AW13" s="109"/>
-      <c r="AX13" s="109"/>
-      <c r="AY13" s="109"/>
-      <c r="AZ13" s="109"/>
-      <c r="BA13" s="108" t="s">
+      <c r="AJ13" s="106"/>
+      <c r="AK13" s="106"/>
+      <c r="AL13" s="106"/>
+      <c r="AM13" s="106"/>
+      <c r="AN13" s="106"/>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
+      <c r="AR13" s="106"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="106"/>
+      <c r="AY13" s="106"/>
+      <c r="AZ13" s="106"/>
+      <c r="BA13" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="BB13" s="79"/>
-      <c r="BC13" s="79"/>
-      <c r="BD13" s="79"/>
-      <c r="BE13" s="79"/>
-      <c r="BF13" s="79"/>
-      <c r="BG13" s="79"/>
-      <c r="BH13" s="80"/>
-      <c r="DI13" s="105"/>
-      <c r="DJ13" s="105"/>
-      <c r="DK13" s="105"/>
-      <c r="DL13" s="105"/>
-      <c r="DM13" s="105"/>
-      <c r="DN13" s="105"/>
-      <c r="DO13" s="105"/>
-      <c r="DP13" s="106"/>
+      <c r="BB13" s="84"/>
+      <c r="BC13" s="84"/>
+      <c r="BD13" s="84"/>
+      <c r="BE13" s="84"/>
+      <c r="BF13" s="84"/>
+      <c r="BG13" s="84"/>
+      <c r="BH13" s="85"/>
+      <c r="DI13" s="97"/>
+      <c r="DJ13" s="97"/>
+      <c r="DK13" s="97"/>
+      <c r="DL13" s="97"/>
+      <c r="DM13" s="97"/>
+      <c r="DN13" s="97"/>
+      <c r="DO13" s="97"/>
+      <c r="DP13" s="98"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -3231,151 +3231,151 @@
       <c r="B16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="77" t="s">
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="77" t="s">
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="91" t="s">
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="97" t="s">
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="102"/>
+      <c r="AF16" s="103"/>
+      <c r="AG16" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="97"/>
-      <c r="AO16" s="97"/>
-      <c r="AP16" s="97"/>
-      <c r="AQ16" s="97"/>
-      <c r="AR16" s="97"/>
-      <c r="AS16" s="97"/>
-      <c r="AT16" s="97"/>
-      <c r="AU16" s="97"/>
-      <c r="AV16" s="97"/>
-      <c r="AW16" s="97"/>
-      <c r="AX16" s="97"/>
-      <c r="AY16" s="97"/>
-      <c r="AZ16" s="98"/>
-      <c r="BA16" s="77" t="s">
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="99"/>
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="99"/>
+      <c r="AS16" s="99"/>
+      <c r="AT16" s="99"/>
+      <c r="AU16" s="99"/>
+      <c r="AV16" s="99"/>
+      <c r="AW16" s="99"/>
+      <c r="AX16" s="99"/>
+      <c r="AY16" s="99"/>
+      <c r="AZ16" s="100"/>
+      <c r="BA16" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="BB16" s="77"/>
-      <c r="BC16" s="77"/>
-      <c r="BD16" s="77"/>
-      <c r="BE16" s="77"/>
-      <c r="BF16" s="77"/>
-      <c r="BG16" s="77"/>
-      <c r="BH16" s="78"/>
+      <c r="BB16" s="95"/>
+      <c r="BC16" s="95"/>
+      <c r="BD16" s="95"/>
+      <c r="BE16" s="95"/>
+      <c r="BF16" s="95"/>
+      <c r="BG16" s="95"/>
+      <c r="BH16" s="96"/>
     </row>
     <row r="17" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31">
         <v>1</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="79" t="s">
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="79" t="s">
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="85"/>
+      <c r="S17" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="99" t="s">
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="100"/>
-      <c r="AD17" s="100"/>
-      <c r="AE17" s="100"/>
-      <c r="AF17" s="101"/>
-      <c r="AG17" s="81" t="s">
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
-      <c r="AK17" s="81"/>
-      <c r="AL17" s="81"/>
-      <c r="AM17" s="81"/>
-      <c r="AN17" s="81"/>
-      <c r="AO17" s="81"/>
-      <c r="AP17" s="81"/>
-      <c r="AQ17" s="81"/>
-      <c r="AR17" s="81"/>
-      <c r="AS17" s="81"/>
-      <c r="AT17" s="81"/>
-      <c r="AU17" s="81"/>
-      <c r="AV17" s="81"/>
-      <c r="AW17" s="81"/>
-      <c r="AX17" s="81"/>
-      <c r="AY17" s="81"/>
-      <c r="AZ17" s="82"/>
-      <c r="BA17" s="79" t="s">
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="108"/>
+      <c r="AJ17" s="108"/>
+      <c r="AK17" s="108"/>
+      <c r="AL17" s="108"/>
+      <c r="AM17" s="108"/>
+      <c r="AN17" s="108"/>
+      <c r="AO17" s="108"/>
+      <c r="AP17" s="108"/>
+      <c r="AQ17" s="108"/>
+      <c r="AR17" s="108"/>
+      <c r="AS17" s="108"/>
+      <c r="AT17" s="108"/>
+      <c r="AU17" s="108"/>
+      <c r="AV17" s="108"/>
+      <c r="AW17" s="108"/>
+      <c r="AX17" s="108"/>
+      <c r="AY17" s="108"/>
+      <c r="AZ17" s="109"/>
+      <c r="BA17" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="BB17" s="79"/>
-      <c r="BC17" s="79"/>
-      <c r="BD17" s="79"/>
-      <c r="BE17" s="79"/>
-      <c r="BF17" s="79"/>
-      <c r="BG17" s="79"/>
-      <c r="BH17" s="80"/>
+      <c r="BB17" s="84"/>
+      <c r="BC17" s="84"/>
+      <c r="BD17" s="84"/>
+      <c r="BE17" s="84"/>
+      <c r="BF17" s="84"/>
+      <c r="BG17" s="84"/>
+      <c r="BH17" s="85"/>
     </row>
     <row r="19" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
@@ -3386,155 +3386,155 @@
       <c r="B20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="77" t="s">
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="77" t="s">
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="94" t="s">
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94" t="s">
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="97" t="s">
+      <c r="AE20" s="105"/>
+      <c r="AF20" s="105"/>
+      <c r="AG20" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="AH20" s="97"/>
-      <c r="AI20" s="97"/>
-      <c r="AJ20" s="97"/>
-      <c r="AK20" s="97"/>
-      <c r="AL20" s="97"/>
-      <c r="AM20" s="97"/>
-      <c r="AN20" s="97"/>
-      <c r="AO20" s="97"/>
-      <c r="AP20" s="97"/>
-      <c r="AQ20" s="97"/>
-      <c r="AR20" s="97"/>
-      <c r="AS20" s="97"/>
-      <c r="AT20" s="97"/>
-      <c r="AU20" s="97"/>
-      <c r="AV20" s="97"/>
-      <c r="AW20" s="97"/>
-      <c r="AX20" s="97"/>
-      <c r="AY20" s="97"/>
-      <c r="AZ20" s="98"/>
-      <c r="BA20" s="77" t="s">
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
+      <c r="AK20" s="99"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="99"/>
+      <c r="AT20" s="99"/>
+      <c r="AU20" s="99"/>
+      <c r="AV20" s="99"/>
+      <c r="AW20" s="99"/>
+      <c r="AX20" s="99"/>
+      <c r="AY20" s="99"/>
+      <c r="AZ20" s="100"/>
+      <c r="BA20" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="BB20" s="77"/>
-      <c r="BC20" s="77"/>
-      <c r="BD20" s="77"/>
-      <c r="BE20" s="77"/>
-      <c r="BF20" s="77"/>
-      <c r="BG20" s="77"/>
-      <c r="BH20" s="78"/>
+      <c r="BB20" s="95"/>
+      <c r="BC20" s="95"/>
+      <c r="BD20" s="95"/>
+      <c r="BE20" s="95"/>
+      <c r="BF20" s="95"/>
+      <c r="BG20" s="95"/>
+      <c r="BH20" s="96"/>
     </row>
     <row r="21" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="31">
         <v>1</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="79" t="s">
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="79" t="s">
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="85"/>
+      <c r="S21" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="80"/>
-      <c r="AA21" s="83" t="s">
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="83" t="s">
+      <c r="AB21" s="114"/>
+      <c r="AC21" s="114"/>
+      <c r="AD21" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="AE21" s="83"/>
-      <c r="AF21" s="83"/>
-      <c r="AG21" s="81" t="s">
+      <c r="AE21" s="114"/>
+      <c r="AF21" s="114"/>
+      <c r="AG21" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="81"/>
-      <c r="AM21" s="81"/>
-      <c r="AN21" s="81"/>
-      <c r="AO21" s="81"/>
-      <c r="AP21" s="81"/>
-      <c r="AQ21" s="81"/>
-      <c r="AR21" s="81"/>
-      <c r="AS21" s="81"/>
-      <c r="AT21" s="81"/>
-      <c r="AU21" s="81"/>
-      <c r="AV21" s="81"/>
-      <c r="AW21" s="81"/>
-      <c r="AX21" s="81"/>
-      <c r="AY21" s="81"/>
-      <c r="AZ21" s="82"/>
-      <c r="BA21" s="79" t="s">
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="108"/>
+      <c r="AJ21" s="108"/>
+      <c r="AK21" s="108"/>
+      <c r="AL21" s="108"/>
+      <c r="AM21" s="108"/>
+      <c r="AN21" s="108"/>
+      <c r="AO21" s="108"/>
+      <c r="AP21" s="108"/>
+      <c r="AQ21" s="108"/>
+      <c r="AR21" s="108"/>
+      <c r="AS21" s="108"/>
+      <c r="AT21" s="108"/>
+      <c r="AU21" s="108"/>
+      <c r="AV21" s="108"/>
+      <c r="AW21" s="108"/>
+      <c r="AX21" s="108"/>
+      <c r="AY21" s="108"/>
+      <c r="AZ21" s="109"/>
+      <c r="BA21" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="BB21" s="79"/>
-      <c r="BC21" s="79"/>
-      <c r="BD21" s="79"/>
-      <c r="BE21" s="79"/>
-      <c r="BF21" s="79"/>
-      <c r="BG21" s="79"/>
-      <c r="BH21" s="80"/>
+      <c r="BB21" s="84"/>
+      <c r="BC21" s="84"/>
+      <c r="BD21" s="84"/>
+      <c r="BE21" s="84"/>
+      <c r="BF21" s="84"/>
+      <c r="BG21" s="84"/>
+      <c r="BH21" s="85"/>
     </row>
     <row r="23" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36"/>
@@ -3804,74 +3804,74 @@
       <c r="B24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94" t="s">
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94" t="s">
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="91" t="s">
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="92"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="92"/>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="92"/>
-      <c r="AL24" s="92"/>
-      <c r="AM24" s="92"/>
-      <c r="AN24" s="92"/>
-      <c r="AO24" s="92"/>
-      <c r="AP24" s="92"/>
-      <c r="AQ24" s="92"/>
-      <c r="AR24" s="92"/>
-      <c r="AS24" s="92"/>
-      <c r="AT24" s="92"/>
-      <c r="AU24" s="92"/>
-      <c r="AV24" s="92"/>
-      <c r="AW24" s="92"/>
-      <c r="AX24" s="92"/>
-      <c r="AY24" s="92"/>
-      <c r="AZ24" s="93"/>
-      <c r="BA24" s="77" t="s">
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="102"/>
+      <c r="AE24" s="102"/>
+      <c r="AF24" s="102"/>
+      <c r="AG24" s="102"/>
+      <c r="AH24" s="102"/>
+      <c r="AI24" s="102"/>
+      <c r="AJ24" s="102"/>
+      <c r="AK24" s="102"/>
+      <c r="AL24" s="102"/>
+      <c r="AM24" s="102"/>
+      <c r="AN24" s="102"/>
+      <c r="AO24" s="102"/>
+      <c r="AP24" s="102"/>
+      <c r="AQ24" s="102"/>
+      <c r="AR24" s="102"/>
+      <c r="AS24" s="102"/>
+      <c r="AT24" s="102"/>
+      <c r="AU24" s="102"/>
+      <c r="AV24" s="102"/>
+      <c r="AW24" s="102"/>
+      <c r="AX24" s="102"/>
+      <c r="AY24" s="102"/>
+      <c r="AZ24" s="113"/>
+      <c r="BA24" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="BB24" s="77"/>
-      <c r="BC24" s="77"/>
-      <c r="BD24" s="77"/>
-      <c r="BE24" s="77"/>
-      <c r="BF24" s="77"/>
-      <c r="BG24" s="77"/>
-      <c r="BH24" s="78"/>
+      <c r="BB24" s="95"/>
+      <c r="BC24" s="95"/>
+      <c r="BD24" s="95"/>
+      <c r="BE24" s="95"/>
+      <c r="BF24" s="95"/>
+      <c r="BG24" s="95"/>
+      <c r="BH24" s="96"/>
       <c r="BI24" s="37"/>
       <c r="BJ24" s="3"/>
       <c r="BK24" s="1"/>
@@ -4077,74 +4077,74 @@
       <c r="B25" s="57">
         <v>1</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="84" t="s">
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="87" t="s">
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="88" t="s">
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="80"/>
+      <c r="Z25" s="80"/>
+      <c r="AA25" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="89"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="89"/>
-      <c r="AJ25" s="89"/>
-      <c r="AK25" s="89"/>
-      <c r="AL25" s="89"/>
-      <c r="AM25" s="89"/>
-      <c r="AN25" s="89"/>
-      <c r="AO25" s="89"/>
-      <c r="AP25" s="89"/>
-      <c r="AQ25" s="89"/>
-      <c r="AR25" s="89"/>
-      <c r="AS25" s="89"/>
-      <c r="AT25" s="89"/>
-      <c r="AU25" s="89"/>
-      <c r="AV25" s="89"/>
-      <c r="AW25" s="89"/>
-      <c r="AX25" s="89"/>
-      <c r="AY25" s="89"/>
-      <c r="AZ25" s="90"/>
-      <c r="BA25" s="79" t="s">
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="82"/>
+      <c r="AM25" s="82"/>
+      <c r="AN25" s="82"/>
+      <c r="AO25" s="82"/>
+      <c r="AP25" s="82"/>
+      <c r="AQ25" s="82"/>
+      <c r="AR25" s="82"/>
+      <c r="AS25" s="82"/>
+      <c r="AT25" s="82"/>
+      <c r="AU25" s="82"/>
+      <c r="AV25" s="82"/>
+      <c r="AW25" s="82"/>
+      <c r="AX25" s="82"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="83"/>
+      <c r="BA25" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="BB25" s="79"/>
-      <c r="BC25" s="79"/>
-      <c r="BD25" s="79"/>
-      <c r="BE25" s="79"/>
-      <c r="BF25" s="79"/>
-      <c r="BG25" s="79"/>
-      <c r="BH25" s="80"/>
+      <c r="BB25" s="84"/>
+      <c r="BC25" s="84"/>
+      <c r="BD25" s="84"/>
+      <c r="BE25" s="84"/>
+      <c r="BF25" s="84"/>
+      <c r="BG25" s="84"/>
+      <c r="BH25" s="85"/>
       <c r="BI25" s="37"/>
       <c r="BJ25" s="3"/>
       <c r="BK25" s="1"/>
@@ -4350,74 +4350,74 @@
       <c r="B26" s="57">
         <v>2</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="84" t="s">
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="87" t="s">
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="88" t="s">
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="80"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="89"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="89"/>
-      <c r="AH26" s="89"/>
-      <c r="AI26" s="89"/>
-      <c r="AJ26" s="89"/>
-      <c r="AK26" s="89"/>
-      <c r="AL26" s="89"/>
-      <c r="AM26" s="89"/>
-      <c r="AN26" s="89"/>
-      <c r="AO26" s="89"/>
-      <c r="AP26" s="89"/>
-      <c r="AQ26" s="89"/>
-      <c r="AR26" s="89"/>
-      <c r="AS26" s="89"/>
-      <c r="AT26" s="89"/>
-      <c r="AU26" s="89"/>
-      <c r="AV26" s="89"/>
-      <c r="AW26" s="89"/>
-      <c r="AX26" s="89"/>
-      <c r="AY26" s="89"/>
-      <c r="AZ26" s="90"/>
-      <c r="BA26" s="79" t="s">
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="82"/>
+      <c r="AM26" s="82"/>
+      <c r="AN26" s="82"/>
+      <c r="AO26" s="82"/>
+      <c r="AP26" s="82"/>
+      <c r="AQ26" s="82"/>
+      <c r="AR26" s="82"/>
+      <c r="AS26" s="82"/>
+      <c r="AT26" s="82"/>
+      <c r="AU26" s="82"/>
+      <c r="AV26" s="82"/>
+      <c r="AW26" s="82"/>
+      <c r="AX26" s="82"/>
+      <c r="AY26" s="82"/>
+      <c r="AZ26" s="83"/>
+      <c r="BA26" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="BB26" s="79"/>
-      <c r="BC26" s="79"/>
-      <c r="BD26" s="79"/>
-      <c r="BE26" s="79"/>
-      <c r="BF26" s="79"/>
-      <c r="BG26" s="79"/>
-      <c r="BH26" s="80"/>
+      <c r="BB26" s="84"/>
+      <c r="BC26" s="84"/>
+      <c r="BD26" s="84"/>
+      <c r="BE26" s="84"/>
+      <c r="BF26" s="84"/>
+      <c r="BG26" s="84"/>
+      <c r="BH26" s="85"/>
       <c r="BI26" s="37"/>
       <c r="BJ26" s="3"/>
       <c r="BK26" s="1"/>
@@ -4620,11 +4620,71 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="S26:Z26"/>
-    <mergeCell ref="AA26:AZ26"/>
-    <mergeCell ref="BA26:BH26"/>
+    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="BA21:BH21"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S21:Z21"/>
+    <mergeCell ref="AG21:AZ21"/>
+    <mergeCell ref="AA21:AC21"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="S25:Z25"/>
+    <mergeCell ref="BA24:BH24"/>
+    <mergeCell ref="BA25:BH25"/>
+    <mergeCell ref="AA25:AZ25"/>
+    <mergeCell ref="AA24:AZ24"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:Z24"/>
+    <mergeCell ref="BA20:BH20"/>
+    <mergeCell ref="AG20:AZ20"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="AG17:AZ17"/>
+    <mergeCell ref="BA17:BH17"/>
+    <mergeCell ref="AA17:AF17"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="G6:BI6"/>
+    <mergeCell ref="G9:AE9"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:BI8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:BI7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="AF9:AK9"/>
+    <mergeCell ref="AL9:BI9"/>
+    <mergeCell ref="DI12:DP12"/>
+    <mergeCell ref="DI13:DP13"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="AG16:AZ16"/>
+    <mergeCell ref="BA16:BH16"/>
+    <mergeCell ref="AA16:AF16"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="BA12:BH12"/>
+    <mergeCell ref="BA13:BH13"/>
+    <mergeCell ref="AA12:AH12"/>
+    <mergeCell ref="AI12:AZ12"/>
+    <mergeCell ref="AI13:AZ13"/>
+    <mergeCell ref="AA13:AH13"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:BI5"/>
     <mergeCell ref="A4:F4"/>
@@ -4641,71 +4701,11 @@
     <mergeCell ref="AE1:AP1"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="DI12:DP12"/>
-    <mergeCell ref="DI13:DP13"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="AG16:AZ16"/>
-    <mergeCell ref="BA16:BH16"/>
-    <mergeCell ref="AA16:AF16"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="BA12:BH12"/>
-    <mergeCell ref="BA13:BH13"/>
-    <mergeCell ref="AA12:AH12"/>
-    <mergeCell ref="AI12:AZ12"/>
-    <mergeCell ref="AI13:AZ13"/>
-    <mergeCell ref="AA13:AH13"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="G6:BI6"/>
-    <mergeCell ref="G9:AE9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:BI8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:BI7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="AF9:AK9"/>
-    <mergeCell ref="AL9:BI9"/>
-    <mergeCell ref="BA20:BH20"/>
-    <mergeCell ref="AG20:AZ20"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="AG17:AZ17"/>
-    <mergeCell ref="BA17:BH17"/>
-    <mergeCell ref="AA17:AF17"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="S25:Z25"/>
-    <mergeCell ref="BA24:BH24"/>
-    <mergeCell ref="BA25:BH25"/>
-    <mergeCell ref="AA25:AZ25"/>
-    <mergeCell ref="AA24:AZ24"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="S24:Z24"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="BA21:BH21"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="S21:Z21"/>
-    <mergeCell ref="AG21:AZ21"/>
-    <mergeCell ref="AA21:AC21"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="S26:Z26"/>
+    <mergeCell ref="AA26:AZ26"/>
+    <mergeCell ref="BA26:BH26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -4735,87 +4735,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="110" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="111" t="str">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="90" t="str">
         <f>クラス仕様!R1</f>
         <v>商品購入</v>
       </c>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="110" t="s">
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="111" t="str">
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="90" t="str">
         <f>クラス仕様!AE1</f>
         <v>商品検索</v>
       </c>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111"/>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="110" t="s">
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="111" t="s">
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
-      <c r="AX1" s="111"/>
-      <c r="AY1" s="111"/>
-      <c r="AZ1" s="111"/>
-      <c r="BA1" s="110" t="s">
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="113">
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="93">
         <v>45911</v>
       </c>
-      <c r="BE1" s="113"/>
-      <c r="BF1" s="113"/>
-      <c r="BG1" s="113"/>
-      <c r="BH1" s="113"/>
-      <c r="BI1" s="113"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -5015,82 +5015,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="110" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="110" t="s">
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="111" t="str">
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="90" t="str">
         <f>クラス仕様!G6</f>
         <v>SearchResultService</v>
       </c>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111"/>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="111"/>
-      <c r="AJ2" s="111"/>
-      <c r="AK2" s="111"/>
-      <c r="AL2" s="111"/>
-      <c r="AM2" s="111"/>
-      <c r="AN2" s="111"/>
-      <c r="AO2" s="111"/>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="110" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="110"/>
-      <c r="AS2" s="110"/>
-      <c r="AT2" s="111" t="s">
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AU2" s="111"/>
-      <c r="AV2" s="111"/>
-      <c r="AW2" s="111"/>
-      <c r="AX2" s="111"/>
-      <c r="AY2" s="111"/>
-      <c r="AZ2" s="111"/>
-      <c r="BA2" s="110" t="s">
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="110"/>
-      <c r="BC2" s="110"/>
-      <c r="BD2" s="113">
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="93">
         <v>45911</v>
       </c>
-      <c r="BE2" s="113"/>
-      <c r="BF2" s="113"/>
-      <c r="BG2" s="113"/>
-      <c r="BH2" s="113"/>
-      <c r="BI2" s="113"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="93"/>
+      <c r="BG2" s="93"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -5290,72 +5290,72 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="126" t="str">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="117" t="str">
         <f>クラス仕様!AG17</f>
         <v>処理なし。</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="126"/>
-      <c r="AO4" s="126"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="126"/>
-      <c r="AS4" s="126"/>
-      <c r="AT4" s="126"/>
-      <c r="AU4" s="126"/>
-      <c r="AV4" s="126"/>
-      <c r="AW4" s="126"/>
-      <c r="AX4" s="126"/>
-      <c r="AY4" s="126"/>
-      <c r="AZ4" s="126"/>
-      <c r="BA4" s="126"/>
-      <c r="BB4" s="126"/>
-      <c r="BC4" s="126"/>
-      <c r="BD4" s="126"/>
-      <c r="BE4" s="126"/>
-      <c r="BF4" s="126"/>
-      <c r="BG4" s="126"/>
-      <c r="BH4" s="126"/>
-      <c r="BI4" s="126"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="117"/>
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="117"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="117"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="117"/>
+      <c r="AZ4" s="117"/>
+      <c r="BA4" s="117"/>
+      <c r="BB4" s="117"/>
+      <c r="BC4" s="117"/>
+      <c r="BD4" s="117"/>
+      <c r="BE4" s="117"/>
+      <c r="BF4" s="117"/>
+      <c r="BG4" s="117"/>
+      <c r="BH4" s="117"/>
+      <c r="BI4" s="117"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -5555,72 +5555,72 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="128" t="str">
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="119" t="str">
         <f>クラス仕様!K17</f>
         <v>SearchResultService</v>
       </c>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="128"/>
-      <c r="AG5" s="128"/>
-      <c r="AH5" s="128"/>
-      <c r="AI5" s="128"/>
-      <c r="AJ5" s="128"/>
-      <c r="AK5" s="128"/>
-      <c r="AL5" s="128"/>
-      <c r="AM5" s="128"/>
-      <c r="AN5" s="128"/>
-      <c r="AO5" s="128"/>
-      <c r="AP5" s="128"/>
-      <c r="AQ5" s="128"/>
-      <c r="AR5" s="128"/>
-      <c r="AS5" s="128"/>
-      <c r="AT5" s="128"/>
-      <c r="AU5" s="128"/>
-      <c r="AV5" s="128"/>
-      <c r="AW5" s="128"/>
-      <c r="AX5" s="128"/>
-      <c r="AY5" s="128"/>
-      <c r="AZ5" s="128"/>
-      <c r="BA5" s="128"/>
-      <c r="BB5" s="128"/>
-      <c r="BC5" s="128"/>
-      <c r="BD5" s="128"/>
-      <c r="BE5" s="128"/>
-      <c r="BF5" s="128"/>
-      <c r="BG5" s="128"/>
-      <c r="BH5" s="128"/>
-      <c r="BI5" s="128"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="119"/>
+      <c r="AP5" s="119"/>
+      <c r="AQ5" s="119"/>
+      <c r="AR5" s="119"/>
+      <c r="AS5" s="119"/>
+      <c r="AT5" s="119"/>
+      <c r="AU5" s="119"/>
+      <c r="AV5" s="119"/>
+      <c r="AW5" s="119"/>
+      <c r="AX5" s="119"/>
+      <c r="AY5" s="119"/>
+      <c r="AZ5" s="119"/>
+      <c r="BA5" s="119"/>
+      <c r="BB5" s="119"/>
+      <c r="BC5" s="119"/>
+      <c r="BD5" s="119"/>
+      <c r="BE5" s="119"/>
+      <c r="BF5" s="119"/>
+      <c r="BG5" s="119"/>
+      <c r="BH5" s="119"/>
+      <c r="BI5" s="119"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -6347,71 +6347,71 @@
       <c r="B8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94" t="s">
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="94" t="s">
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="94"/>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="94"/>
-      <c r="AI8" s="94"/>
-      <c r="AJ8" s="94"/>
-      <c r="AK8" s="94"/>
-      <c r="AL8" s="94"/>
-      <c r="AM8" s="94"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="94"/>
-      <c r="AP8" s="94"/>
-      <c r="AQ8" s="94"/>
-      <c r="AR8" s="94"/>
-      <c r="AS8" s="94"/>
-      <c r="AT8" s="94"/>
-      <c r="AU8" s="94"/>
-      <c r="AV8" s="94"/>
-      <c r="AW8" s="94"/>
-      <c r="AX8" s="94"/>
-      <c r="AY8" s="94"/>
-      <c r="AZ8" s="94"/>
-      <c r="BA8" s="94"/>
-      <c r="BB8" s="94"/>
-      <c r="BC8" s="94"/>
-      <c r="BD8" s="94"/>
-      <c r="BE8" s="94"/>
-      <c r="BF8" s="94"/>
-      <c r="BG8" s="94"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="105"/>
+      <c r="AX8" s="105"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="105"/>
+      <c r="BC8" s="105"/>
+      <c r="BD8" s="105"/>
+      <c r="BE8" s="105"/>
+      <c r="BF8" s="105"/>
+      <c r="BG8" s="105"/>
       <c r="BH8" s="21"/>
       <c r="BI8" s="37"/>
       <c r="BJ8" s="3"/>
@@ -6618,71 +6618,71 @@
       <c r="B9" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118" t="s">
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118" t="s">
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="118"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="118"/>
-      <c r="Z9" s="118"/>
-      <c r="AA9" s="119" t="s">
+      <c r="T9" s="115"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="115"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="115"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="115"/>
+      <c r="AA9" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="AB9" s="119"/>
-      <c r="AC9" s="119"/>
-      <c r="AD9" s="119"/>
-      <c r="AE9" s="119"/>
-      <c r="AF9" s="119"/>
-      <c r="AG9" s="119"/>
-      <c r="AH9" s="119"/>
-      <c r="AI9" s="119"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="119"/>
-      <c r="AL9" s="119"/>
-      <c r="AM9" s="119"/>
-      <c r="AN9" s="119"/>
-      <c r="AO9" s="119"/>
-      <c r="AP9" s="119"/>
-      <c r="AQ9" s="119"/>
-      <c r="AR9" s="119"/>
-      <c r="AS9" s="119"/>
-      <c r="AT9" s="119"/>
-      <c r="AU9" s="119"/>
-      <c r="AV9" s="119"/>
-      <c r="AW9" s="119"/>
-      <c r="AX9" s="119"/>
-      <c r="AY9" s="119"/>
-      <c r="AZ9" s="119"/>
-      <c r="BA9" s="119"/>
-      <c r="BB9" s="119"/>
-      <c r="BC9" s="119"/>
-      <c r="BD9" s="119"/>
-      <c r="BE9" s="119"/>
-      <c r="BF9" s="119"/>
-      <c r="BG9" s="119"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="116"/>
+      <c r="AG9" s="116"/>
+      <c r="AH9" s="116"/>
+      <c r="AI9" s="116"/>
+      <c r="AJ9" s="116"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="116"/>
+      <c r="AM9" s="116"/>
+      <c r="AN9" s="116"/>
+      <c r="AO9" s="116"/>
+      <c r="AP9" s="116"/>
+      <c r="AQ9" s="116"/>
+      <c r="AR9" s="116"/>
+      <c r="AS9" s="116"/>
+      <c r="AT9" s="116"/>
+      <c r="AU9" s="116"/>
+      <c r="AV9" s="116"/>
+      <c r="AW9" s="116"/>
+      <c r="AX9" s="116"/>
+      <c r="AY9" s="116"/>
+      <c r="AZ9" s="116"/>
+      <c r="BA9" s="116"/>
+      <c r="BB9" s="116"/>
+      <c r="BC9" s="116"/>
+      <c r="BD9" s="116"/>
+      <c r="BE9" s="116"/>
+      <c r="BF9" s="116"/>
+      <c r="BG9" s="116"/>
       <c r="BH9" s="21"/>
       <c r="BI9" s="37"/>
       <c r="BJ9" s="3"/>
@@ -7215,77 +7215,77 @@
       <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="77" t="s">
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="77" t="s">
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="78"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="96"/>
       <c r="AA12" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="AB12" s="98"/>
+      <c r="AB12" s="100"/>
       <c r="AC12" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="AD12" s="98"/>
+      <c r="AD12" s="100"/>
       <c r="AE12" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="97"/>
-      <c r="AJ12" s="97"/>
-      <c r="AK12" s="97"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="97"/>
-      <c r="AN12" s="97"/>
-      <c r="AO12" s="97"/>
-      <c r="AP12" s="97"/>
-      <c r="AQ12" s="97"/>
-      <c r="AR12" s="97"/>
-      <c r="AS12" s="97"/>
-      <c r="AT12" s="97"/>
-      <c r="AU12" s="97"/>
-      <c r="AV12" s="97"/>
-      <c r="AW12" s="97"/>
-      <c r="AX12" s="97"/>
-      <c r="AY12" s="94" t="s">
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="99"/>
+      <c r="AS12" s="99"/>
+      <c r="AT12" s="99"/>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+      <c r="AX12" s="99"/>
+      <c r="AY12" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="AZ12" s="94"/>
-      <c r="BA12" s="94"/>
-      <c r="BB12" s="94"/>
-      <c r="BC12" s="94"/>
-      <c r="BD12" s="94"/>
-      <c r="BE12" s="94"/>
-      <c r="BF12" s="94"/>
-      <c r="BG12" s="94"/>
+      <c r="AZ12" s="105"/>
+      <c r="BA12" s="105"/>
+      <c r="BB12" s="105"/>
+      <c r="BC12" s="105"/>
+      <c r="BD12" s="105"/>
+      <c r="BE12" s="105"/>
+      <c r="BF12" s="105"/>
+      <c r="BG12" s="105"/>
       <c r="BH12" s="21"/>
       <c r="BI12" s="37"/>
       <c r="BJ12" s="3"/>
@@ -7492,36 +7492,36 @@
       <c r="B13" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="79" t="s">
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="79" t="s">
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="T13" s="79"/>
-      <c r="U13" s="79"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="79"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="80"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="85"/>
       <c r="AA13" s="120" t="s">
         <v>76</v>
       </c>
@@ -7552,17 +7552,17 @@
       <c r="AV13" s="123"/>
       <c r="AW13" s="123"/>
       <c r="AX13" s="123"/>
-      <c r="AY13" s="109" t="s">
+      <c r="AY13" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="AZ13" s="109"/>
-      <c r="BA13" s="109"/>
-      <c r="BB13" s="109"/>
-      <c r="BC13" s="109"/>
-      <c r="BD13" s="109"/>
-      <c r="BE13" s="109"/>
-      <c r="BF13" s="109"/>
-      <c r="BG13" s="109"/>
+      <c r="AZ13" s="106"/>
+      <c r="BA13" s="106"/>
+      <c r="BB13" s="106"/>
+      <c r="BC13" s="106"/>
+      <c r="BD13" s="106"/>
+      <c r="BE13" s="106"/>
+      <c r="BF13" s="106"/>
+      <c r="BG13" s="106"/>
       <c r="BH13" s="21"/>
       <c r="BI13" s="37"/>
       <c r="BJ13" s="3"/>
@@ -8293,71 +8293,71 @@
       <c r="B16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94" t="s">
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94" t="s">
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94" t="s">
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="105"/>
+      <c r="AA16" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="94"/>
-      <c r="AJ16" s="94"/>
-      <c r="AK16" s="94"/>
-      <c r="AL16" s="94"/>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="94"/>
-      <c r="AP16" s="94"/>
-      <c r="AQ16" s="94"/>
-      <c r="AR16" s="94"/>
-      <c r="AS16" s="94"/>
-      <c r="AT16" s="94"/>
-      <c r="AU16" s="94"/>
-      <c r="AV16" s="94"/>
-      <c r="AW16" s="94"/>
-      <c r="AX16" s="94"/>
-      <c r="AY16" s="94"/>
-      <c r="AZ16" s="94"/>
-      <c r="BA16" s="94"/>
-      <c r="BB16" s="94"/>
-      <c r="BC16" s="94"/>
-      <c r="BD16" s="94"/>
-      <c r="BE16" s="94"/>
-      <c r="BF16" s="94"/>
-      <c r="BG16" s="94"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="105"/>
+      <c r="AD16" s="105"/>
+      <c r="AE16" s="105"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="105"/>
+      <c r="AH16" s="105"/>
+      <c r="AI16" s="105"/>
+      <c r="AJ16" s="105"/>
+      <c r="AK16" s="105"/>
+      <c r="AL16" s="105"/>
+      <c r="AM16" s="105"/>
+      <c r="AN16" s="105"/>
+      <c r="AO16" s="105"/>
+      <c r="AP16" s="105"/>
+      <c r="AQ16" s="105"/>
+      <c r="AR16" s="105"/>
+      <c r="AS16" s="105"/>
+      <c r="AT16" s="105"/>
+      <c r="AU16" s="105"/>
+      <c r="AV16" s="105"/>
+      <c r="AW16" s="105"/>
+      <c r="AX16" s="105"/>
+      <c r="AY16" s="105"/>
+      <c r="AZ16" s="105"/>
+      <c r="BA16" s="105"/>
+      <c r="BB16" s="105"/>
+      <c r="BC16" s="105"/>
+      <c r="BD16" s="105"/>
+      <c r="BE16" s="105"/>
+      <c r="BF16" s="105"/>
+      <c r="BG16" s="105"/>
       <c r="BH16" s="21"/>
       <c r="BI16" s="37"/>
       <c r="BJ16" s="3"/>
@@ -8564,71 +8564,71 @@
       <c r="B17" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118" t="s">
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118" t="s">
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="119" t="s">
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="115"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="115"/>
+      <c r="Y17" s="115"/>
+      <c r="Z17" s="115"/>
+      <c r="AA17" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="AB17" s="119"/>
-      <c r="AC17" s="119"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="119"/>
-      <c r="AF17" s="119"/>
-      <c r="AG17" s="119"/>
-      <c r="AH17" s="119"/>
-      <c r="AI17" s="119"/>
-      <c r="AJ17" s="119"/>
-      <c r="AK17" s="119"/>
-      <c r="AL17" s="119"/>
-      <c r="AM17" s="119"/>
-      <c r="AN17" s="119"/>
-      <c r="AO17" s="119"/>
-      <c r="AP17" s="119"/>
-      <c r="AQ17" s="119"/>
-      <c r="AR17" s="119"/>
-      <c r="AS17" s="119"/>
-      <c r="AT17" s="119"/>
-      <c r="AU17" s="119"/>
-      <c r="AV17" s="119"/>
-      <c r="AW17" s="119"/>
-      <c r="AX17" s="119"/>
-      <c r="AY17" s="119"/>
-      <c r="AZ17" s="119"/>
-      <c r="BA17" s="119"/>
-      <c r="BB17" s="119"/>
-      <c r="BC17" s="119"/>
-      <c r="BD17" s="119"/>
-      <c r="BE17" s="119"/>
-      <c r="BF17" s="119"/>
-      <c r="BG17" s="119"/>
+      <c r="AB17" s="116"/>
+      <c r="AC17" s="116"/>
+      <c r="AD17" s="116"/>
+      <c r="AE17" s="116"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="116"/>
+      <c r="AI17" s="116"/>
+      <c r="AJ17" s="116"/>
+      <c r="AK17" s="116"/>
+      <c r="AL17" s="116"/>
+      <c r="AM17" s="116"/>
+      <c r="AN17" s="116"/>
+      <c r="AO17" s="116"/>
+      <c r="AP17" s="116"/>
+      <c r="AQ17" s="116"/>
+      <c r="AR17" s="116"/>
+      <c r="AS17" s="116"/>
+      <c r="AT17" s="116"/>
+      <c r="AU17" s="116"/>
+      <c r="AV17" s="116"/>
+      <c r="AW17" s="116"/>
+      <c r="AX17" s="116"/>
+      <c r="AY17" s="116"/>
+      <c r="AZ17" s="116"/>
+      <c r="BA17" s="116"/>
+      <c r="BB17" s="116"/>
+      <c r="BC17" s="116"/>
+      <c r="BD17" s="116"/>
+      <c r="BE17" s="116"/>
+      <c r="BF17" s="116"/>
+      <c r="BG17" s="116"/>
       <c r="BH17" s="21"/>
       <c r="BI17" s="37"/>
       <c r="BJ17" s="3"/>
@@ -9093,67 +9093,67 @@
     </row>
     <row r="19" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
-      <c r="B19" s="115" t="s">
+      <c r="B19" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="116"/>
-      <c r="Y19" s="116"/>
-      <c r="Z19" s="116"/>
-      <c r="AA19" s="116"/>
-      <c r="AB19" s="116"/>
-      <c r="AC19" s="116"/>
-      <c r="AD19" s="116"/>
-      <c r="AE19" s="116"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="116"/>
-      <c r="AJ19" s="116"/>
-      <c r="AK19" s="116"/>
-      <c r="AL19" s="116"/>
-      <c r="AM19" s="116"/>
-      <c r="AN19" s="116"/>
-      <c r="AO19" s="116"/>
-      <c r="AP19" s="116"/>
-      <c r="AQ19" s="116"/>
-      <c r="AR19" s="116"/>
-      <c r="AS19" s="116"/>
-      <c r="AT19" s="116"/>
-      <c r="AU19" s="116"/>
-      <c r="AV19" s="116"/>
-      <c r="AW19" s="116"/>
-      <c r="AX19" s="116"/>
-      <c r="AY19" s="116"/>
-      <c r="AZ19" s="116"/>
-      <c r="BA19" s="116"/>
-      <c r="BB19" s="116"/>
-      <c r="BC19" s="116"/>
-      <c r="BD19" s="116"/>
-      <c r="BE19" s="116"/>
-      <c r="BF19" s="116"/>
-      <c r="BG19" s="116"/>
-      <c r="BH19" s="117"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="127"/>
+      <c r="AF19" s="127"/>
+      <c r="AG19" s="127"/>
+      <c r="AH19" s="127"/>
+      <c r="AI19" s="127"/>
+      <c r="AJ19" s="127"/>
+      <c r="AK19" s="127"/>
+      <c r="AL19" s="127"/>
+      <c r="AM19" s="127"/>
+      <c r="AN19" s="127"/>
+      <c r="AO19" s="127"/>
+      <c r="AP19" s="127"/>
+      <c r="AQ19" s="127"/>
+      <c r="AR19" s="127"/>
+      <c r="AS19" s="127"/>
+      <c r="AT19" s="127"/>
+      <c r="AU19" s="127"/>
+      <c r="AV19" s="127"/>
+      <c r="AW19" s="127"/>
+      <c r="AX19" s="127"/>
+      <c r="AY19" s="127"/>
+      <c r="AZ19" s="127"/>
+      <c r="BA19" s="127"/>
+      <c r="BB19" s="127"/>
+      <c r="BC19" s="127"/>
+      <c r="BD19" s="127"/>
+      <c r="BE19" s="127"/>
+      <c r="BF19" s="127"/>
+      <c r="BG19" s="127"/>
+      <c r="BH19" s="128"/>
       <c r="BI19" s="41"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
@@ -10657,6 +10657,43 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B19:BH19"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="AA16:BG16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="AA17:BG17"/>
+    <mergeCell ref="AY12:BG12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AX13"/>
+    <mergeCell ref="AY13:BG13"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AX12"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="AA9:BG9"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="AA8:BG8"/>
+    <mergeCell ref="A1:L2"/>
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
@@ -10672,43 +10709,6 @@
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="AA9:BG9"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="AA8:BG8"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="AY12:BG12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AX13"/>
-    <mergeCell ref="AY13:BG13"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AX12"/>
-    <mergeCell ref="B19:BH19"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="AA16:BG16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="AA17:BG17"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="2">
@@ -10741,87 +10741,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="110" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="111" t="str">
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="90" t="str">
         <f>クラス仕様!R1</f>
         <v>商品購入</v>
       </c>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="111"/>
-      <c r="AB1" s="110" t="s">
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="111" t="str">
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="91"/>
+      <c r="AE1" s="90" t="str">
         <f>クラス仕様!AE1</f>
         <v>商品検索</v>
       </c>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="111"/>
-      <c r="AH1" s="111"/>
-      <c r="AI1" s="111"/>
-      <c r="AJ1" s="111"/>
-      <c r="AK1" s="111"/>
-      <c r="AL1" s="111"/>
-      <c r="AM1" s="111"/>
-      <c r="AN1" s="111"/>
-      <c r="AO1" s="111"/>
-      <c r="AP1" s="111"/>
-      <c r="AQ1" s="110" t="s">
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="111" t="s">
+      <c r="AR1" s="91"/>
+      <c r="AS1" s="91"/>
+      <c r="AT1" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AU1" s="111"/>
-      <c r="AV1" s="111"/>
-      <c r="AW1" s="111"/>
-      <c r="AX1" s="111"/>
-      <c r="AY1" s="111"/>
-      <c r="AZ1" s="111"/>
-      <c r="BA1" s="110" t="s">
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="113">
+      <c r="BB1" s="91"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="93">
         <v>45910</v>
       </c>
-      <c r="BE1" s="113"/>
-      <c r="BF1" s="113"/>
-      <c r="BG1" s="113"/>
-      <c r="BH1" s="113"/>
-      <c r="BI1" s="113"/>
+      <c r="BE1" s="93"/>
+      <c r="BF1" s="93"/>
+      <c r="BG1" s="93"/>
+      <c r="BH1" s="93"/>
+      <c r="BI1" s="93"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -11021,82 +11021,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="110" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="110" t="s">
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="111" t="str">
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="90" t="str">
         <f>クラス仕様!G6</f>
         <v>SearchResultService</v>
       </c>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111"/>
-      <c r="AH2" s="111"/>
-      <c r="AI2" s="111"/>
-      <c r="AJ2" s="111"/>
-      <c r="AK2" s="111"/>
-      <c r="AL2" s="111"/>
-      <c r="AM2" s="111"/>
-      <c r="AN2" s="111"/>
-      <c r="AO2" s="111"/>
-      <c r="AP2" s="111"/>
-      <c r="AQ2" s="110" t="s">
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="90"/>
+      <c r="AK2" s="90"/>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AR2" s="110"/>
-      <c r="AS2" s="110"/>
-      <c r="AT2" s="111" t="s">
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AU2" s="111"/>
-      <c r="AV2" s="111"/>
-      <c r="AW2" s="111"/>
-      <c r="AX2" s="111"/>
-      <c r="AY2" s="111"/>
-      <c r="AZ2" s="111"/>
-      <c r="BA2" s="110" t="s">
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="90"/>
+      <c r="AY2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="BB2" s="110"/>
-      <c r="BC2" s="110"/>
-      <c r="BD2" s="113">
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="93">
         <v>45912</v>
       </c>
-      <c r="BE2" s="113"/>
-      <c r="BF2" s="113"/>
-      <c r="BG2" s="113"/>
-      <c r="BH2" s="113"/>
-      <c r="BI2" s="113"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="93"/>
+      <c r="BG2" s="93"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="93"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -11296,72 +11296,72 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="126" t="str">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="117" t="str">
         <f>クラス仕様!AG21</f>
         <v>HTTPからのリクエストに応じた遷移先を返す。</v>
       </c>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="126"/>
-      <c r="AO4" s="126"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="126"/>
-      <c r="AS4" s="126"/>
-      <c r="AT4" s="126"/>
-      <c r="AU4" s="126"/>
-      <c r="AV4" s="126"/>
-      <c r="AW4" s="126"/>
-      <c r="AX4" s="126"/>
-      <c r="AY4" s="126"/>
-      <c r="AZ4" s="126"/>
-      <c r="BA4" s="126"/>
-      <c r="BB4" s="126"/>
-      <c r="BC4" s="126"/>
-      <c r="BD4" s="126"/>
-      <c r="BE4" s="126"/>
-      <c r="BF4" s="126"/>
-      <c r="BG4" s="126"/>
-      <c r="BH4" s="126"/>
-      <c r="BI4" s="126"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="117"/>
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="117"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="117"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="117"/>
+      <c r="AZ4" s="117"/>
+      <c r="BA4" s="117"/>
+      <c r="BB4" s="117"/>
+      <c r="BC4" s="117"/>
+      <c r="BD4" s="117"/>
+      <c r="BE4" s="117"/>
+      <c r="BF4" s="117"/>
+      <c r="BG4" s="117"/>
+      <c r="BH4" s="117"/>
+      <c r="BI4" s="117"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -11561,72 +11561,72 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="128" t="str">
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="119" t="str">
         <f>クラス仕様!K21</f>
         <v>excecute</v>
       </c>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="128"/>
-      <c r="AG5" s="128"/>
-      <c r="AH5" s="128"/>
-      <c r="AI5" s="128"/>
-      <c r="AJ5" s="128"/>
-      <c r="AK5" s="128"/>
-      <c r="AL5" s="128"/>
-      <c r="AM5" s="128"/>
-      <c r="AN5" s="128"/>
-      <c r="AO5" s="128"/>
-      <c r="AP5" s="128"/>
-      <c r="AQ5" s="128"/>
-      <c r="AR5" s="128"/>
-      <c r="AS5" s="128"/>
-      <c r="AT5" s="128"/>
-      <c r="AU5" s="128"/>
-      <c r="AV5" s="128"/>
-      <c r="AW5" s="128"/>
-      <c r="AX5" s="128"/>
-      <c r="AY5" s="128"/>
-      <c r="AZ5" s="128"/>
-      <c r="BA5" s="128"/>
-      <c r="BB5" s="128"/>
-      <c r="BC5" s="128"/>
-      <c r="BD5" s="128"/>
-      <c r="BE5" s="128"/>
-      <c r="BF5" s="128"/>
-      <c r="BG5" s="128"/>
-      <c r="BH5" s="128"/>
-      <c r="BI5" s="128"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="119"/>
+      <c r="AD5" s="119"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+      <c r="AJ5" s="119"/>
+      <c r="AK5" s="119"/>
+      <c r="AL5" s="119"/>
+      <c r="AM5" s="119"/>
+      <c r="AN5" s="119"/>
+      <c r="AO5" s="119"/>
+      <c r="AP5" s="119"/>
+      <c r="AQ5" s="119"/>
+      <c r="AR5" s="119"/>
+      <c r="AS5" s="119"/>
+      <c r="AT5" s="119"/>
+      <c r="AU5" s="119"/>
+      <c r="AV5" s="119"/>
+      <c r="AW5" s="119"/>
+      <c r="AX5" s="119"/>
+      <c r="AY5" s="119"/>
+      <c r="AZ5" s="119"/>
+      <c r="BA5" s="119"/>
+      <c r="BB5" s="119"/>
+      <c r="BC5" s="119"/>
+      <c r="BD5" s="119"/>
+      <c r="BE5" s="119"/>
+      <c r="BF5" s="119"/>
+      <c r="BG5" s="119"/>
+      <c r="BH5" s="119"/>
+      <c r="BI5" s="119"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -12353,71 +12353,71 @@
       <c r="B8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94" t="s">
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="94" t="s">
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="94"/>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="94"/>
-      <c r="AI8" s="94"/>
-      <c r="AJ8" s="94"/>
-      <c r="AK8" s="94"/>
-      <c r="AL8" s="94"/>
-      <c r="AM8" s="94"/>
-      <c r="AN8" s="94"/>
-      <c r="AO8" s="94"/>
-      <c r="AP8" s="94"/>
-      <c r="AQ8" s="94"/>
-      <c r="AR8" s="94"/>
-      <c r="AS8" s="94"/>
-      <c r="AT8" s="94"/>
-      <c r="AU8" s="94"/>
-      <c r="AV8" s="94"/>
-      <c r="AW8" s="94"/>
-      <c r="AX8" s="94"/>
-      <c r="AY8" s="94"/>
-      <c r="AZ8" s="94"/>
-      <c r="BA8" s="94"/>
-      <c r="BB8" s="94"/>
-      <c r="BC8" s="94"/>
-      <c r="BD8" s="94"/>
-      <c r="BE8" s="94"/>
-      <c r="BF8" s="94"/>
-      <c r="BG8" s="94"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="105"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="105"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="105"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="105"/>
+      <c r="AO8" s="105"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="105"/>
+      <c r="AX8" s="105"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="105"/>
+      <c r="BB8" s="105"/>
+      <c r="BC8" s="105"/>
+      <c r="BD8" s="105"/>
+      <c r="BE8" s="105"/>
+      <c r="BF8" s="105"/>
+      <c r="BG8" s="105"/>
       <c r="BH8" s="21"/>
       <c r="BI8" s="37"/>
       <c r="BJ8" s="3"/>
@@ -12624,71 +12624,71 @@
       <c r="B9" s="31">
         <v>1</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118" t="s">
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="118" t="s">
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="118"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="118"/>
-      <c r="Z9" s="118"/>
-      <c r="AA9" s="131" t="s">
+      <c r="T9" s="115"/>
+      <c r="U9" s="115"/>
+      <c r="V9" s="115"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="115"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="115"/>
+      <c r="AA9" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="AB9" s="131"/>
-      <c r="AC9" s="131"/>
-      <c r="AD9" s="131"/>
-      <c r="AE9" s="131"/>
-      <c r="AF9" s="131"/>
-      <c r="AG9" s="131"/>
-      <c r="AH9" s="131"/>
-      <c r="AI9" s="131"/>
-      <c r="AJ9" s="131"/>
-      <c r="AK9" s="131"/>
-      <c r="AL9" s="131"/>
-      <c r="AM9" s="131"/>
-      <c r="AN9" s="131"/>
-      <c r="AO9" s="131"/>
-      <c r="AP9" s="131"/>
-      <c r="AQ9" s="131"/>
-      <c r="AR9" s="131"/>
-      <c r="AS9" s="131"/>
-      <c r="AT9" s="131"/>
-      <c r="AU9" s="131"/>
-      <c r="AV9" s="131"/>
-      <c r="AW9" s="131"/>
-      <c r="AX9" s="131"/>
-      <c r="AY9" s="131"/>
-      <c r="AZ9" s="131"/>
-      <c r="BA9" s="131"/>
-      <c r="BB9" s="131"/>
-      <c r="BC9" s="131"/>
-      <c r="BD9" s="131"/>
-      <c r="BE9" s="131"/>
-      <c r="BF9" s="131"/>
-      <c r="BG9" s="131"/>
+      <c r="AB9" s="129"/>
+      <c r="AC9" s="129"/>
+      <c r="AD9" s="129"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="129"/>
+      <c r="AG9" s="129"/>
+      <c r="AH9" s="129"/>
+      <c r="AI9" s="129"/>
+      <c r="AJ9" s="129"/>
+      <c r="AK9" s="129"/>
+      <c r="AL9" s="129"/>
+      <c r="AM9" s="129"/>
+      <c r="AN9" s="129"/>
+      <c r="AO9" s="129"/>
+      <c r="AP9" s="129"/>
+      <c r="AQ9" s="129"/>
+      <c r="AR9" s="129"/>
+      <c r="AS9" s="129"/>
+      <c r="AT9" s="129"/>
+      <c r="AU9" s="129"/>
+      <c r="AV9" s="129"/>
+      <c r="AW9" s="129"/>
+      <c r="AX9" s="129"/>
+      <c r="AY9" s="129"/>
+      <c r="AZ9" s="129"/>
+      <c r="BA9" s="129"/>
+      <c r="BB9" s="129"/>
+      <c r="BC9" s="129"/>
+      <c r="BD9" s="129"/>
+      <c r="BE9" s="129"/>
+      <c r="BF9" s="129"/>
+      <c r="BG9" s="129"/>
       <c r="BH9" s="21"/>
       <c r="BI9" s="37"/>
       <c r="BJ9" s="3"/>
@@ -13419,71 +13419,71 @@
       <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94" t="s">
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94" t="s">
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94" t="s">
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="94"/>
-      <c r="AJ12" s="94"/>
-      <c r="AK12" s="94"/>
-      <c r="AL12" s="94"/>
-      <c r="AM12" s="94"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="94"/>
-      <c r="AP12" s="94"/>
-      <c r="AQ12" s="94"/>
-      <c r="AR12" s="94"/>
-      <c r="AS12" s="94"/>
-      <c r="AT12" s="94"/>
-      <c r="AU12" s="94"/>
-      <c r="AV12" s="94"/>
-      <c r="AW12" s="94"/>
-      <c r="AX12" s="94"/>
-      <c r="AY12" s="94"/>
-      <c r="AZ12" s="94"/>
-      <c r="BA12" s="94"/>
-      <c r="BB12" s="94"/>
-      <c r="BC12" s="94"/>
-      <c r="BD12" s="94"/>
-      <c r="BE12" s="94"/>
-      <c r="BF12" s="94"/>
-      <c r="BG12" s="94"/>
+      <c r="AB12" s="105"/>
+      <c r="AC12" s="105"/>
+      <c r="AD12" s="105"/>
+      <c r="AE12" s="105"/>
+      <c r="AF12" s="105"/>
+      <c r="AG12" s="105"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="105"/>
+      <c r="AJ12" s="105"/>
+      <c r="AK12" s="105"/>
+      <c r="AL12" s="105"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="105"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+      <c r="AQ12" s="105"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="105"/>
+      <c r="AT12" s="105"/>
+      <c r="AU12" s="105"/>
+      <c r="AV12" s="105"/>
+      <c r="AW12" s="105"/>
+      <c r="AX12" s="105"/>
+      <c r="AY12" s="105"/>
+      <c r="AZ12" s="105"/>
+      <c r="BA12" s="105"/>
+      <c r="BB12" s="105"/>
+      <c r="BC12" s="105"/>
+      <c r="BD12" s="105"/>
+      <c r="BE12" s="105"/>
+      <c r="BF12" s="105"/>
+      <c r="BG12" s="105"/>
       <c r="BH12" s="21"/>
       <c r="BI12" s="37"/>
       <c r="BJ12" s="3"/>
@@ -13690,71 +13690,71 @@
       <c r="B13" s="31">
         <v>1</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="118"/>
-      <c r="K13" s="118" t="s">
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="118"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="118"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118" t="s">
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="131" t="s">
+      <c r="T13" s="115"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="115"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="115"/>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="131"/>
-      <c r="AD13" s="131"/>
-      <c r="AE13" s="131"/>
-      <c r="AF13" s="131"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="131"/>
-      <c r="AI13" s="131"/>
-      <c r="AJ13" s="131"/>
-      <c r="AK13" s="131"/>
-      <c r="AL13" s="131"/>
-      <c r="AM13" s="131"/>
-      <c r="AN13" s="131"/>
-      <c r="AO13" s="131"/>
-      <c r="AP13" s="131"/>
-      <c r="AQ13" s="131"/>
-      <c r="AR13" s="131"/>
-      <c r="AS13" s="131"/>
-      <c r="AT13" s="131"/>
-      <c r="AU13" s="131"/>
-      <c r="AV13" s="131"/>
-      <c r="AW13" s="131"/>
-      <c r="AX13" s="131"/>
-      <c r="AY13" s="131"/>
-      <c r="AZ13" s="131"/>
-      <c r="BA13" s="131"/>
-      <c r="BB13" s="131"/>
-      <c r="BC13" s="131"/>
-      <c r="BD13" s="131"/>
-      <c r="BE13" s="131"/>
-      <c r="BF13" s="131"/>
-      <c r="BG13" s="131"/>
+      <c r="AB13" s="129"/>
+      <c r="AC13" s="129"/>
+      <c r="AD13" s="129"/>
+      <c r="AE13" s="129"/>
+      <c r="AF13" s="129"/>
+      <c r="AG13" s="129"/>
+      <c r="AH13" s="129"/>
+      <c r="AI13" s="129"/>
+      <c r="AJ13" s="129"/>
+      <c r="AK13" s="129"/>
+      <c r="AL13" s="129"/>
+      <c r="AM13" s="129"/>
+      <c r="AN13" s="129"/>
+      <c r="AO13" s="129"/>
+      <c r="AP13" s="129"/>
+      <c r="AQ13" s="129"/>
+      <c r="AR13" s="129"/>
+      <c r="AS13" s="129"/>
+      <c r="AT13" s="129"/>
+      <c r="AU13" s="129"/>
+      <c r="AV13" s="129"/>
+      <c r="AW13" s="129"/>
+      <c r="AX13" s="129"/>
+      <c r="AY13" s="129"/>
+      <c r="AZ13" s="129"/>
+      <c r="BA13" s="129"/>
+      <c r="BB13" s="129"/>
+      <c r="BC13" s="129"/>
+      <c r="BD13" s="129"/>
+      <c r="BE13" s="129"/>
+      <c r="BF13" s="129"/>
+      <c r="BG13" s="129"/>
       <c r="BH13" s="21"/>
       <c r="BI13" s="37"/>
       <c r="BJ13" s="3"/>
@@ -14287,77 +14287,77 @@
       <c r="B16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="77" t="s">
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="77" t="s">
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="78"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="96"/>
       <c r="AA16" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="AB16" s="98"/>
+      <c r="AB16" s="100"/>
       <c r="AC16" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="AD16" s="98"/>
+      <c r="AD16" s="100"/>
       <c r="AE16" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="AF16" s="97"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="97"/>
-      <c r="AI16" s="97"/>
-      <c r="AJ16" s="97"/>
-      <c r="AK16" s="97"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="97"/>
-      <c r="AO16" s="97"/>
-      <c r="AP16" s="97"/>
-      <c r="AQ16" s="97"/>
-      <c r="AR16" s="97"/>
-      <c r="AS16" s="97"/>
-      <c r="AT16" s="97"/>
-      <c r="AU16" s="97"/>
-      <c r="AV16" s="97"/>
-      <c r="AW16" s="97"/>
-      <c r="AX16" s="97"/>
-      <c r="AY16" s="94" t="s">
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="99"/>
+      <c r="AJ16" s="99"/>
+      <c r="AK16" s="99"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="99"/>
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="99"/>
+      <c r="AS16" s="99"/>
+      <c r="AT16" s="99"/>
+      <c r="AU16" s="99"/>
+      <c r="AV16" s="99"/>
+      <c r="AW16" s="99"/>
+      <c r="AX16" s="99"/>
+      <c r="AY16" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="AZ16" s="94"/>
-      <c r="BA16" s="94"/>
-      <c r="BB16" s="94"/>
-      <c r="BC16" s="94"/>
-      <c r="BD16" s="94"/>
-      <c r="BE16" s="94"/>
-      <c r="BF16" s="94"/>
-      <c r="BG16" s="94"/>
+      <c r="AZ16" s="105"/>
+      <c r="BA16" s="105"/>
+      <c r="BB16" s="105"/>
+      <c r="BC16" s="105"/>
+      <c r="BD16" s="105"/>
+      <c r="BE16" s="105"/>
+      <c r="BF16" s="105"/>
+      <c r="BG16" s="105"/>
       <c r="BH16" s="21"/>
       <c r="BI16" s="37"/>
       <c r="BJ16" s="3"/>
@@ -14564,36 +14564,36 @@
       <c r="B17" s="31">
         <v>1</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="105" t="s">
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="105" t="s">
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="T17" s="105"/>
-      <c r="U17" s="105"/>
-      <c r="V17" s="105"/>
-      <c r="W17" s="105"/>
-      <c r="X17" s="105"/>
-      <c r="Y17" s="105"/>
-      <c r="Z17" s="106"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="98"/>
       <c r="AA17" s="120" t="s">
         <v>28</v>
       </c>
@@ -14605,36 +14605,36 @@
       <c r="AE17" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
-      <c r="AK17" s="81"/>
-      <c r="AL17" s="81"/>
-      <c r="AM17" s="81"/>
-      <c r="AN17" s="81"/>
-      <c r="AO17" s="81"/>
-      <c r="AP17" s="81"/>
-      <c r="AQ17" s="81"/>
-      <c r="AR17" s="81"/>
-      <c r="AS17" s="81"/>
-      <c r="AT17" s="81"/>
-      <c r="AU17" s="81"/>
-      <c r="AV17" s="81"/>
-      <c r="AW17" s="81"/>
-      <c r="AX17" s="81"/>
-      <c r="AY17" s="129" t="s">
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="108"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="108"/>
+      <c r="AJ17" s="108"/>
+      <c r="AK17" s="108"/>
+      <c r="AL17" s="108"/>
+      <c r="AM17" s="108"/>
+      <c r="AN17" s="108"/>
+      <c r="AO17" s="108"/>
+      <c r="AP17" s="108"/>
+      <c r="AQ17" s="108"/>
+      <c r="AR17" s="108"/>
+      <c r="AS17" s="108"/>
+      <c r="AT17" s="108"/>
+      <c r="AU17" s="108"/>
+      <c r="AV17" s="108"/>
+      <c r="AW17" s="108"/>
+      <c r="AX17" s="108"/>
+      <c r="AY17" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AZ17" s="129"/>
-      <c r="BA17" s="129"/>
-      <c r="BB17" s="129"/>
-      <c r="BC17" s="129"/>
-      <c r="BD17" s="129"/>
-      <c r="BE17" s="129"/>
-      <c r="BF17" s="129"/>
-      <c r="BG17" s="129"/>
+      <c r="AZ17" s="131"/>
+      <c r="BA17" s="131"/>
+      <c r="BB17" s="131"/>
+      <c r="BC17" s="131"/>
+      <c r="BD17" s="131"/>
+      <c r="BE17" s="131"/>
+      <c r="BF17" s="131"/>
+      <c r="BG17" s="131"/>
       <c r="BH17" s="21"/>
       <c r="BI17" s="37"/>
       <c r="BJ17" s="3"/>
@@ -14841,36 +14841,36 @@
       <c r="B18" s="31">
         <v>2</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="105" t="s">
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="105" t="s">
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="T18" s="105"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="105"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="106"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="97"/>
+      <c r="Z18" s="98"/>
       <c r="AA18" s="120" t="s">
         <v>28</v>
       </c>
@@ -14882,36 +14882,36 @@
       <c r="AE18" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="81"/>
-      <c r="AH18" s="81"/>
-      <c r="AI18" s="81"/>
-      <c r="AJ18" s="81"/>
-      <c r="AK18" s="81"/>
-      <c r="AL18" s="81"/>
-      <c r="AM18" s="81"/>
-      <c r="AN18" s="81"/>
-      <c r="AO18" s="81"/>
-      <c r="AP18" s="81"/>
-      <c r="AQ18" s="81"/>
-      <c r="AR18" s="81"/>
-      <c r="AS18" s="81"/>
-      <c r="AT18" s="81"/>
-      <c r="AU18" s="81"/>
-      <c r="AV18" s="81"/>
-      <c r="AW18" s="81"/>
-      <c r="AX18" s="81"/>
-      <c r="AY18" s="129" t="s">
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="108"/>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="108"/>
+      <c r="AJ18" s="108"/>
+      <c r="AK18" s="108"/>
+      <c r="AL18" s="108"/>
+      <c r="AM18" s="108"/>
+      <c r="AN18" s="108"/>
+      <c r="AO18" s="108"/>
+      <c r="AP18" s="108"/>
+      <c r="AQ18" s="108"/>
+      <c r="AR18" s="108"/>
+      <c r="AS18" s="108"/>
+      <c r="AT18" s="108"/>
+      <c r="AU18" s="108"/>
+      <c r="AV18" s="108"/>
+      <c r="AW18" s="108"/>
+      <c r="AX18" s="108"/>
+      <c r="AY18" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="AZ18" s="129"/>
-      <c r="BA18" s="129"/>
-      <c r="BB18" s="129"/>
-      <c r="BC18" s="129"/>
-      <c r="BD18" s="129"/>
-      <c r="BE18" s="129"/>
-      <c r="BF18" s="129"/>
-      <c r="BG18" s="129"/>
+      <c r="AZ18" s="131"/>
+      <c r="BA18" s="131"/>
+      <c r="BB18" s="131"/>
+      <c r="BC18" s="131"/>
+      <c r="BD18" s="131"/>
+      <c r="BE18" s="131"/>
+      <c r="BF18" s="131"/>
+      <c r="BG18" s="131"/>
       <c r="BH18" s="21"/>
       <c r="BI18" s="37"/>
       <c r="BJ18" s="3"/>
@@ -15118,36 +15118,36 @@
       <c r="B19" s="31">
         <v>3</v>
       </c>
-      <c r="C19" s="105" t="s">
+      <c r="C19" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="105" t="s">
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="105" t="s">
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="T19" s="105"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="105"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="106"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="97"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="97"/>
+      <c r="Z19" s="98"/>
       <c r="AA19" s="120" t="s">
         <v>28</v>
       </c>
@@ -15159,36 +15159,36 @@
       <c r="AE19" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="81"/>
-      <c r="AL19" s="81"/>
-      <c r="AM19" s="81"/>
-      <c r="AN19" s="81"/>
-      <c r="AO19" s="81"/>
-      <c r="AP19" s="81"/>
-      <c r="AQ19" s="81"/>
-      <c r="AR19" s="81"/>
-      <c r="AS19" s="81"/>
-      <c r="AT19" s="81"/>
-      <c r="AU19" s="81"/>
-      <c r="AV19" s="81"/>
-      <c r="AW19" s="81"/>
-      <c r="AX19" s="81"/>
-      <c r="AY19" s="129" t="s">
+      <c r="AF19" s="108"/>
+      <c r="AG19" s="108"/>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="108"/>
+      <c r="AJ19" s="108"/>
+      <c r="AK19" s="108"/>
+      <c r="AL19" s="108"/>
+      <c r="AM19" s="108"/>
+      <c r="AN19" s="108"/>
+      <c r="AO19" s="108"/>
+      <c r="AP19" s="108"/>
+      <c r="AQ19" s="108"/>
+      <c r="AR19" s="108"/>
+      <c r="AS19" s="108"/>
+      <c r="AT19" s="108"/>
+      <c r="AU19" s="108"/>
+      <c r="AV19" s="108"/>
+      <c r="AW19" s="108"/>
+      <c r="AX19" s="108"/>
+      <c r="AY19" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="AZ19" s="129"/>
-      <c r="BA19" s="129"/>
-      <c r="BB19" s="129"/>
-      <c r="BC19" s="129"/>
-      <c r="BD19" s="129"/>
-      <c r="BE19" s="129"/>
-      <c r="BF19" s="129"/>
-      <c r="BG19" s="129"/>
+      <c r="AZ19" s="131"/>
+      <c r="BA19" s="131"/>
+      <c r="BB19" s="131"/>
+      <c r="BC19" s="131"/>
+      <c r="BD19" s="131"/>
+      <c r="BE19" s="131"/>
+      <c r="BF19" s="131"/>
+      <c r="BG19" s="131"/>
       <c r="BH19" s="21"/>
       <c r="BI19" s="37"/>
       <c r="BJ19" s="3"/>
@@ -15395,36 +15395,36 @@
       <c r="B20" s="31">
         <v>4</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="105" t="s">
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="105"/>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="105" t="s">
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="T20" s="105"/>
-      <c r="U20" s="105"/>
-      <c r="V20" s="105"/>
-      <c r="W20" s="105"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="105"/>
-      <c r="Z20" s="106"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="98"/>
       <c r="AA20" s="120" t="s">
         <v>28</v>
       </c>
@@ -15436,36 +15436,36 @@
       <c r="AE20" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="AF20" s="81"/>
-      <c r="AG20" s="81"/>
-      <c r="AH20" s="81"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="81"/>
-      <c r="AK20" s="81"/>
-      <c r="AL20" s="81"/>
-      <c r="AM20" s="81"/>
-      <c r="AN20" s="81"/>
-      <c r="AO20" s="81"/>
-      <c r="AP20" s="81"/>
-      <c r="AQ20" s="81"/>
-      <c r="AR20" s="81"/>
-      <c r="AS20" s="81"/>
-      <c r="AT20" s="81"/>
-      <c r="AU20" s="81"/>
-      <c r="AV20" s="81"/>
-      <c r="AW20" s="81"/>
-      <c r="AX20" s="81"/>
-      <c r="AY20" s="129" t="s">
+      <c r="AF20" s="108"/>
+      <c r="AG20" s="108"/>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="108"/>
+      <c r="AJ20" s="108"/>
+      <c r="AK20" s="108"/>
+      <c r="AL20" s="108"/>
+      <c r="AM20" s="108"/>
+      <c r="AN20" s="108"/>
+      <c r="AO20" s="108"/>
+      <c r="AP20" s="108"/>
+      <c r="AQ20" s="108"/>
+      <c r="AR20" s="108"/>
+      <c r="AS20" s="108"/>
+      <c r="AT20" s="108"/>
+      <c r="AU20" s="108"/>
+      <c r="AV20" s="108"/>
+      <c r="AW20" s="108"/>
+      <c r="AX20" s="108"/>
+      <c r="AY20" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="AZ20" s="129"/>
-      <c r="BA20" s="129"/>
-      <c r="BB20" s="129"/>
-      <c r="BC20" s="129"/>
-      <c r="BD20" s="129"/>
-      <c r="BE20" s="129"/>
-      <c r="BF20" s="129"/>
-      <c r="BG20" s="129"/>
+      <c r="AZ20" s="131"/>
+      <c r="BA20" s="131"/>
+      <c r="BB20" s="131"/>
+      <c r="BC20" s="131"/>
+      <c r="BD20" s="131"/>
+      <c r="BE20" s="131"/>
+      <c r="BF20" s="131"/>
+      <c r="BG20" s="131"/>
       <c r="BH20" s="21"/>
       <c r="BI20" s="37"/>
       <c r="BJ20" s="3"/>
@@ -15672,36 +15672,36 @@
       <c r="B21" s="31">
         <v>5</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="105" t="s">
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="105" t="s">
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="T21" s="105"/>
-      <c r="U21" s="105"/>
-      <c r="V21" s="105"/>
-      <c r="W21" s="105"/>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="105"/>
-      <c r="Z21" s="106"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="97"/>
+      <c r="Y21" s="97"/>
+      <c r="Z21" s="98"/>
       <c r="AA21" s="120" t="s">
         <v>76</v>
       </c>
@@ -15713,36 +15713,36 @@
       <c r="AE21" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="81"/>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="81"/>
-      <c r="AM21" s="81"/>
-      <c r="AN21" s="81"/>
-      <c r="AO21" s="81"/>
-      <c r="AP21" s="81"/>
-      <c r="AQ21" s="81"/>
-      <c r="AR21" s="81"/>
-      <c r="AS21" s="81"/>
-      <c r="AT21" s="81"/>
-      <c r="AU21" s="81"/>
-      <c r="AV21" s="81"/>
-      <c r="AW21" s="81"/>
-      <c r="AX21" s="81"/>
-      <c r="AY21" s="129" t="s">
+      <c r="AF21" s="108"/>
+      <c r="AG21" s="108"/>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="108"/>
+      <c r="AJ21" s="108"/>
+      <c r="AK21" s="108"/>
+      <c r="AL21" s="108"/>
+      <c r="AM21" s="108"/>
+      <c r="AN21" s="108"/>
+      <c r="AO21" s="108"/>
+      <c r="AP21" s="108"/>
+      <c r="AQ21" s="108"/>
+      <c r="AR21" s="108"/>
+      <c r="AS21" s="108"/>
+      <c r="AT21" s="108"/>
+      <c r="AU21" s="108"/>
+      <c r="AV21" s="108"/>
+      <c r="AW21" s="108"/>
+      <c r="AX21" s="108"/>
+      <c r="AY21" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="AZ21" s="129"/>
-      <c r="BA21" s="129"/>
-      <c r="BB21" s="129"/>
-      <c r="BC21" s="129"/>
-      <c r="BD21" s="129"/>
-      <c r="BE21" s="129"/>
-      <c r="BF21" s="129"/>
-      <c r="BG21" s="129"/>
+      <c r="AZ21" s="131"/>
+      <c r="BA21" s="131"/>
+      <c r="BB21" s="131"/>
+      <c r="BC21" s="131"/>
+      <c r="BD21" s="131"/>
+      <c r="BE21" s="131"/>
+      <c r="BF21" s="131"/>
+      <c r="BG21" s="131"/>
       <c r="BH21" s="21"/>
       <c r="BI21" s="37"/>
       <c r="BJ21" s="3"/>
@@ -16473,71 +16473,71 @@
       <c r="B24" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94" t="s">
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94" t="s">
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94" t="s">
+      <c r="T24" s="105"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
+      <c r="AA24" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="94"/>
-      <c r="AE24" s="94"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="94"/>
-      <c r="AH24" s="94"/>
-      <c r="AI24" s="94"/>
-      <c r="AJ24" s="94"/>
-      <c r="AK24" s="94"/>
-      <c r="AL24" s="94"/>
-      <c r="AM24" s="94"/>
-      <c r="AN24" s="94"/>
-      <c r="AO24" s="94"/>
-      <c r="AP24" s="94"/>
-      <c r="AQ24" s="94"/>
-      <c r="AR24" s="94"/>
-      <c r="AS24" s="94"/>
-      <c r="AT24" s="94"/>
-      <c r="AU24" s="94"/>
-      <c r="AV24" s="94"/>
-      <c r="AW24" s="94"/>
-      <c r="AX24" s="94"/>
-      <c r="AY24" s="94"/>
-      <c r="AZ24" s="94"/>
-      <c r="BA24" s="94"/>
-      <c r="BB24" s="94"/>
-      <c r="BC24" s="94"/>
-      <c r="BD24" s="94"/>
-      <c r="BE24" s="94"/>
-      <c r="BF24" s="94"/>
-      <c r="BG24" s="94"/>
+      <c r="AB24" s="105"/>
+      <c r="AC24" s="105"/>
+      <c r="AD24" s="105"/>
+      <c r="AE24" s="105"/>
+      <c r="AF24" s="105"/>
+      <c r="AG24" s="105"/>
+      <c r="AH24" s="105"/>
+      <c r="AI24" s="105"/>
+      <c r="AJ24" s="105"/>
+      <c r="AK24" s="105"/>
+      <c r="AL24" s="105"/>
+      <c r="AM24" s="105"/>
+      <c r="AN24" s="105"/>
+      <c r="AO24" s="105"/>
+      <c r="AP24" s="105"/>
+      <c r="AQ24" s="105"/>
+      <c r="AR24" s="105"/>
+      <c r="AS24" s="105"/>
+      <c r="AT24" s="105"/>
+      <c r="AU24" s="105"/>
+      <c r="AV24" s="105"/>
+      <c r="AW24" s="105"/>
+      <c r="AX24" s="105"/>
+      <c r="AY24" s="105"/>
+      <c r="AZ24" s="105"/>
+      <c r="BA24" s="105"/>
+      <c r="BB24" s="105"/>
+      <c r="BC24" s="105"/>
+      <c r="BD24" s="105"/>
+      <c r="BE24" s="105"/>
+      <c r="BF24" s="105"/>
+      <c r="BG24" s="105"/>
       <c r="BH24" s="21"/>
       <c r="BI24" s="37"/>
       <c r="BJ24" s="3"/>
@@ -16744,71 +16744,71 @@
       <c r="B25" s="31">
         <v>1</v>
       </c>
-      <c r="C25" s="118" t="s">
+      <c r="C25" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118" t="s">
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118" t="s">
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="131" t="s">
+      <c r="T25" s="115"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="115"/>
+      <c r="Y25" s="115"/>
+      <c r="Z25" s="115"/>
+      <c r="AA25" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="AB25" s="131"/>
-      <c r="AC25" s="131"/>
-      <c r="AD25" s="131"/>
-      <c r="AE25" s="131"/>
-      <c r="AF25" s="131"/>
-      <c r="AG25" s="131"/>
-      <c r="AH25" s="131"/>
-      <c r="AI25" s="131"/>
-      <c r="AJ25" s="131"/>
-      <c r="AK25" s="131"/>
-      <c r="AL25" s="131"/>
-      <c r="AM25" s="131"/>
-      <c r="AN25" s="131"/>
-      <c r="AO25" s="131"/>
-      <c r="AP25" s="131"/>
-      <c r="AQ25" s="131"/>
-      <c r="AR25" s="131"/>
-      <c r="AS25" s="131"/>
-      <c r="AT25" s="131"/>
-      <c r="AU25" s="131"/>
-      <c r="AV25" s="131"/>
-      <c r="AW25" s="131"/>
-      <c r="AX25" s="131"/>
-      <c r="AY25" s="131"/>
-      <c r="AZ25" s="131"/>
-      <c r="BA25" s="131"/>
-      <c r="BB25" s="131"/>
-      <c r="BC25" s="131"/>
-      <c r="BD25" s="131"/>
-      <c r="BE25" s="131"/>
-      <c r="BF25" s="131"/>
-      <c r="BG25" s="131"/>
+      <c r="AB25" s="129"/>
+      <c r="AC25" s="129"/>
+      <c r="AD25" s="129"/>
+      <c r="AE25" s="129"/>
+      <c r="AF25" s="129"/>
+      <c r="AG25" s="129"/>
+      <c r="AH25" s="129"/>
+      <c r="AI25" s="129"/>
+      <c r="AJ25" s="129"/>
+      <c r="AK25" s="129"/>
+      <c r="AL25" s="129"/>
+      <c r="AM25" s="129"/>
+      <c r="AN25" s="129"/>
+      <c r="AO25" s="129"/>
+      <c r="AP25" s="129"/>
+      <c r="AQ25" s="129"/>
+      <c r="AR25" s="129"/>
+      <c r="AS25" s="129"/>
+      <c r="AT25" s="129"/>
+      <c r="AU25" s="129"/>
+      <c r="AV25" s="129"/>
+      <c r="AW25" s="129"/>
+      <c r="AX25" s="129"/>
+      <c r="AY25" s="129"/>
+      <c r="AZ25" s="129"/>
+      <c r="BA25" s="129"/>
+      <c r="BB25" s="129"/>
+      <c r="BC25" s="129"/>
+      <c r="BD25" s="129"/>
+      <c r="BE25" s="129"/>
+      <c r="BF25" s="129"/>
+      <c r="BG25" s="129"/>
       <c r="BH25" s="21"/>
       <c r="BI25" s="37"/>
       <c r="BJ25" s="3"/>
@@ -17015,71 +17015,71 @@
       <c r="B26" s="31">
         <v>2</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118" t="s">
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118" t="s">
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="118"/>
-      <c r="AA26" s="131" t="s">
+      <c r="T26" s="115"/>
+      <c r="U26" s="115"/>
+      <c r="V26" s="115"/>
+      <c r="W26" s="115"/>
+      <c r="X26" s="115"/>
+      <c r="Y26" s="115"/>
+      <c r="Z26" s="115"/>
+      <c r="AA26" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="AB26" s="131"/>
-      <c r="AC26" s="131"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="131"/>
-      <c r="AG26" s="131"/>
-      <c r="AH26" s="131"/>
-      <c r="AI26" s="131"/>
-      <c r="AJ26" s="131"/>
-      <c r="AK26" s="131"/>
-      <c r="AL26" s="131"/>
-      <c r="AM26" s="131"/>
-      <c r="AN26" s="131"/>
-      <c r="AO26" s="131"/>
-      <c r="AP26" s="131"/>
-      <c r="AQ26" s="131"/>
-      <c r="AR26" s="131"/>
-      <c r="AS26" s="131"/>
-      <c r="AT26" s="131"/>
-      <c r="AU26" s="131"/>
-      <c r="AV26" s="131"/>
-      <c r="AW26" s="131"/>
-      <c r="AX26" s="131"/>
-      <c r="AY26" s="131"/>
-      <c r="AZ26" s="131"/>
-      <c r="BA26" s="131"/>
-      <c r="BB26" s="131"/>
-      <c r="BC26" s="131"/>
-      <c r="BD26" s="131"/>
-      <c r="BE26" s="131"/>
-      <c r="BF26" s="131"/>
-      <c r="BG26" s="131"/>
+      <c r="AB26" s="129"/>
+      <c r="AC26" s="129"/>
+      <c r="AD26" s="129"/>
+      <c r="AE26" s="129"/>
+      <c r="AF26" s="129"/>
+      <c r="AG26" s="129"/>
+      <c r="AH26" s="129"/>
+      <c r="AI26" s="129"/>
+      <c r="AJ26" s="129"/>
+      <c r="AK26" s="129"/>
+      <c r="AL26" s="129"/>
+      <c r="AM26" s="129"/>
+      <c r="AN26" s="129"/>
+      <c r="AO26" s="129"/>
+      <c r="AP26" s="129"/>
+      <c r="AQ26" s="129"/>
+      <c r="AR26" s="129"/>
+      <c r="AS26" s="129"/>
+      <c r="AT26" s="129"/>
+      <c r="AU26" s="129"/>
+      <c r="AV26" s="129"/>
+      <c r="AW26" s="129"/>
+      <c r="AX26" s="129"/>
+      <c r="AY26" s="129"/>
+      <c r="AZ26" s="129"/>
+      <c r="BA26" s="129"/>
+      <c r="BB26" s="129"/>
+      <c r="BC26" s="129"/>
+      <c r="BD26" s="129"/>
+      <c r="BE26" s="129"/>
+      <c r="BF26" s="129"/>
+      <c r="BG26" s="129"/>
       <c r="BH26" s="21"/>
       <c r="BI26" s="37"/>
       <c r="BJ26" s="3"/>
@@ -17544,67 +17544,67 @@
     </row>
     <row r="28" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="116"/>
-      <c r="R28" s="116"/>
-      <c r="S28" s="116"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
-      <c r="V28" s="116"/>
-      <c r="W28" s="116"/>
-      <c r="X28" s="116"/>
-      <c r="Y28" s="116"/>
-      <c r="Z28" s="116"/>
-      <c r="AA28" s="116"/>
-      <c r="AB28" s="116"/>
-      <c r="AC28" s="116"/>
-      <c r="AD28" s="116"/>
-      <c r="AE28" s="116"/>
-      <c r="AF28" s="116"/>
-      <c r="AG28" s="116"/>
-      <c r="AH28" s="116"/>
-      <c r="AI28" s="116"/>
-      <c r="AJ28" s="116"/>
-      <c r="AK28" s="116"/>
-      <c r="AL28" s="116"/>
-      <c r="AM28" s="116"/>
-      <c r="AN28" s="116"/>
-      <c r="AO28" s="116"/>
-      <c r="AP28" s="116"/>
-      <c r="AQ28" s="116"/>
-      <c r="AR28" s="116"/>
-      <c r="AS28" s="116"/>
-      <c r="AT28" s="116"/>
-      <c r="AU28" s="116"/>
-      <c r="AV28" s="116"/>
-      <c r="AW28" s="116"/>
-      <c r="AX28" s="116"/>
-      <c r="AY28" s="116"/>
-      <c r="AZ28" s="116"/>
-      <c r="BA28" s="116"/>
-      <c r="BB28" s="116"/>
-      <c r="BC28" s="116"/>
-      <c r="BD28" s="116"/>
-      <c r="BE28" s="116"/>
-      <c r="BF28" s="116"/>
-      <c r="BG28" s="116"/>
-      <c r="BH28" s="117"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="127"/>
+      <c r="O28" s="127"/>
+      <c r="P28" s="127"/>
+      <c r="Q28" s="127"/>
+      <c r="R28" s="127"/>
+      <c r="S28" s="127"/>
+      <c r="T28" s="127"/>
+      <c r="U28" s="127"/>
+      <c r="V28" s="127"/>
+      <c r="W28" s="127"/>
+      <c r="X28" s="127"/>
+      <c r="Y28" s="127"/>
+      <c r="Z28" s="127"/>
+      <c r="AA28" s="127"/>
+      <c r="AB28" s="127"/>
+      <c r="AC28" s="127"/>
+      <c r="AD28" s="127"/>
+      <c r="AE28" s="127"/>
+      <c r="AF28" s="127"/>
+      <c r="AG28" s="127"/>
+      <c r="AH28" s="127"/>
+      <c r="AI28" s="127"/>
+      <c r="AJ28" s="127"/>
+      <c r="AK28" s="127"/>
+      <c r="AL28" s="127"/>
+      <c r="AM28" s="127"/>
+      <c r="AN28" s="127"/>
+      <c r="AO28" s="127"/>
+      <c r="AP28" s="127"/>
+      <c r="AQ28" s="127"/>
+      <c r="AR28" s="127"/>
+      <c r="AS28" s="127"/>
+      <c r="AT28" s="127"/>
+      <c r="AU28" s="127"/>
+      <c r="AV28" s="127"/>
+      <c r="AW28" s="127"/>
+      <c r="AX28" s="127"/>
+      <c r="AY28" s="127"/>
+      <c r="AZ28" s="127"/>
+      <c r="BA28" s="127"/>
+      <c r="BB28" s="127"/>
+      <c r="BC28" s="127"/>
+      <c r="BD28" s="127"/>
+      <c r="BE28" s="127"/>
+      <c r="BF28" s="127"/>
+      <c r="BG28" s="127"/>
+      <c r="BH28" s="128"/>
       <c r="BI28" s="41"/>
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
@@ -23551,67 +23551,67 @@
     </row>
     <row r="51" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="58"/>
-      <c r="B51" s="115" t="s">
+      <c r="B51" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="116"/>
-      <c r="M51" s="116"/>
-      <c r="N51" s="116"/>
-      <c r="O51" s="116"/>
-      <c r="P51" s="116"/>
-      <c r="Q51" s="116"/>
-      <c r="R51" s="116"/>
-      <c r="S51" s="116"/>
-      <c r="T51" s="116"/>
-      <c r="U51" s="116"/>
-      <c r="V51" s="116"/>
-      <c r="W51" s="116"/>
-      <c r="X51" s="116"/>
-      <c r="Y51" s="116"/>
-      <c r="Z51" s="116"/>
-      <c r="AA51" s="116"/>
-      <c r="AB51" s="116"/>
-      <c r="AC51" s="116"/>
-      <c r="AD51" s="116"/>
-      <c r="AE51" s="116"/>
-      <c r="AF51" s="116"/>
-      <c r="AG51" s="116"/>
-      <c r="AH51" s="116"/>
-      <c r="AI51" s="116"/>
-      <c r="AJ51" s="116"/>
-      <c r="AK51" s="116"/>
-      <c r="AL51" s="116"/>
-      <c r="AM51" s="116"/>
-      <c r="AN51" s="116"/>
-      <c r="AO51" s="116"/>
-      <c r="AP51" s="116"/>
-      <c r="AQ51" s="116"/>
-      <c r="AR51" s="116"/>
-      <c r="AS51" s="116"/>
-      <c r="AT51" s="116"/>
-      <c r="AU51" s="116"/>
-      <c r="AV51" s="116"/>
-      <c r="AW51" s="116"/>
-      <c r="AX51" s="116"/>
-      <c r="AY51" s="116"/>
-      <c r="AZ51" s="116"/>
-      <c r="BA51" s="116"/>
-      <c r="BB51" s="116"/>
-      <c r="BC51" s="116"/>
-      <c r="BD51" s="116"/>
-      <c r="BE51" s="116"/>
-      <c r="BF51" s="116"/>
-      <c r="BG51" s="116"/>
-      <c r="BH51" s="117"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="127"/>
+      <c r="N51" s="127"/>
+      <c r="O51" s="127"/>
+      <c r="P51" s="127"/>
+      <c r="Q51" s="127"/>
+      <c r="R51" s="127"/>
+      <c r="S51" s="127"/>
+      <c r="T51" s="127"/>
+      <c r="U51" s="127"/>
+      <c r="V51" s="127"/>
+      <c r="W51" s="127"/>
+      <c r="X51" s="127"/>
+      <c r="Y51" s="127"/>
+      <c r="Z51" s="127"/>
+      <c r="AA51" s="127"/>
+      <c r="AB51" s="127"/>
+      <c r="AC51" s="127"/>
+      <c r="AD51" s="127"/>
+      <c r="AE51" s="127"/>
+      <c r="AF51" s="127"/>
+      <c r="AG51" s="127"/>
+      <c r="AH51" s="127"/>
+      <c r="AI51" s="127"/>
+      <c r="AJ51" s="127"/>
+      <c r="AK51" s="127"/>
+      <c r="AL51" s="127"/>
+      <c r="AM51" s="127"/>
+      <c r="AN51" s="127"/>
+      <c r="AO51" s="127"/>
+      <c r="AP51" s="127"/>
+      <c r="AQ51" s="127"/>
+      <c r="AR51" s="127"/>
+      <c r="AS51" s="127"/>
+      <c r="AT51" s="127"/>
+      <c r="AU51" s="127"/>
+      <c r="AV51" s="127"/>
+      <c r="AW51" s="127"/>
+      <c r="AX51" s="127"/>
+      <c r="AY51" s="127"/>
+      <c r="AZ51" s="127"/>
+      <c r="BA51" s="127"/>
+      <c r="BB51" s="127"/>
+      <c r="BC51" s="127"/>
+      <c r="BD51" s="127"/>
+      <c r="BE51" s="127"/>
+      <c r="BF51" s="127"/>
+      <c r="BG51" s="127"/>
+      <c r="BH51" s="128"/>
       <c r="BI51" s="17"/>
       <c r="BK51"/>
       <c r="BL51"/>
@@ -25641,32 +25641,57 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="S26:Z26"/>
-    <mergeCell ref="AA26:BG26"/>
-    <mergeCell ref="AE21:AX21"/>
-    <mergeCell ref="AY21:BG21"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="S21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="AE19:AX19"/>
-    <mergeCell ref="AY19:BG19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="S20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AX20"/>
-    <mergeCell ref="AY20:BG20"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="S19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AY16:BG16"/>
+    <mergeCell ref="AY17:BG17"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:Z16"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AX16"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:Z17"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AX17"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:Z12"/>
+    <mergeCell ref="AA12:BG12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:Z13"/>
+    <mergeCell ref="AA13:BG13"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:Z9"/>
+    <mergeCell ref="AA9:BG9"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:Z8"/>
+    <mergeCell ref="AA8:BG8"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="B51:BH51"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="K18:R18"/>
@@ -25683,57 +25708,32 @@
     <mergeCell ref="S25:Z25"/>
     <mergeCell ref="AA25:BG25"/>
     <mergeCell ref="B28:BH28"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:Z9"/>
-    <mergeCell ref="AA9:BG9"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:Z8"/>
-    <mergeCell ref="AA8:BG8"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:Z12"/>
-    <mergeCell ref="AA12:BG12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="AA13:BG13"/>
-    <mergeCell ref="AY16:BG16"/>
-    <mergeCell ref="AY17:BG17"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="S16:Z16"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AX16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:Z17"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AX17"/>
+    <mergeCell ref="AE19:AX19"/>
+    <mergeCell ref="AY19:BG19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AX20"/>
+    <mergeCell ref="AY20:BG20"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="S26:Z26"/>
+    <mergeCell ref="AA26:BG26"/>
+    <mergeCell ref="AE21:AX21"/>
+    <mergeCell ref="AY21:BG21"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="C24:J24"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations disablePrompts="1" count="3">
@@ -25755,12 +25755,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25896,15 +25893,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25928,10 +25929,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>